--- a/data/trans_orig/P5711-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P5711-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>333308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>311506</v>
+        <v>314958</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>351122</v>
+        <v>356182</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7051279207796824</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6590047330294763</v>
+        <v>0.6663072471862742</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.742813207047184</v>
+        <v>0.7535180337485271</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -765,19 +765,19 @@
         <v>200073</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>181857</v>
+        <v>182546</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216891</v>
+        <v>216490</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6523838240382517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5929866680161489</v>
+        <v>0.5952342142295627</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7072215803305348</v>
+        <v>0.7059151416917584</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>520</v>
@@ -786,19 +786,19 @@
         <v>533381</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>504892</v>
+        <v>505511</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>556966</v>
+        <v>559613</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.684373295893016</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6478187101053386</v>
+        <v>0.6486134381127437</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7146343769330109</v>
+        <v>0.7180305097456786</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>97184</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80008</v>
+        <v>80158</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>115661</v>
+        <v>115981</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2055963090303725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1692600682683011</v>
+        <v>0.1695781344685316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.244685138823458</v>
+        <v>0.2453627653831937</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>68</v>
@@ -836,19 +836,19 @@
         <v>71285</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>57298</v>
+        <v>56995</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>87846</v>
+        <v>86100</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2324409230503606</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1868334465759882</v>
+        <v>0.1858454317032425</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2864417716244877</v>
+        <v>0.2807487539087312</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>162</v>
@@ -857,19 +857,19 @@
         <v>168469</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148513</v>
+        <v>146503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194408</v>
+        <v>193510</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2161595744692241</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1905542769842301</v>
+        <v>0.1879751440417628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2494416499111235</v>
+        <v>0.2482902182262162</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>27460</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>17807</v>
+        <v>17984</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>40225</v>
+        <v>40388</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05809298484897421</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.03767084994728492</v>
+        <v>0.03804618152183564</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.08509799225014092</v>
+        <v>0.08544247341476219</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -907,19 +907,19 @@
         <v>21654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>14456</v>
+        <v>13557</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31404</v>
+        <v>31205</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0706069825425122</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0471371965854596</v>
+        <v>0.04420548280830694</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1024003778540256</v>
+        <v>0.1017523212265846</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>46</v>
@@ -928,19 +928,19 @@
         <v>49114</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>36905</v>
+        <v>35628</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>64777</v>
+        <v>64283</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06301720090362087</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04735259992074856</v>
+        <v>0.04571381998090528</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08311478324011878</v>
+        <v>0.08248072971705324</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>11024</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4937</v>
+        <v>5662</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>20325</v>
+        <v>21376</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02332232897299461</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01044419069268209</v>
+        <v>0.01197839470739749</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04299843554877685</v>
+        <v>0.04522152497300794</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>9</v>
@@ -978,19 +978,19 @@
         <v>10385</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5582</v>
+        <v>4851</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>21084</v>
+        <v>19562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03386328427798255</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01820140817277298</v>
+        <v>0.01581913080390518</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06875029551866149</v>
+        <v>0.06378666003217172</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>18</v>
@@ -999,19 +999,19 @@
         <v>21409</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>12703</v>
+        <v>13178</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33329</v>
+        <v>33388</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02747015947570741</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01629851204678421</v>
+        <v>0.01690875234909398</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04276393358989252</v>
+        <v>0.04283908635798878</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>3716</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>826</v>
+        <v>808</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11187</v>
+        <v>11235</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.007860456367976276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001746797349840838</v>
+        <v>0.001710172169465043</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0236669471218683</v>
+        <v>0.02376849496468782</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1049,19 +1049,19 @@
         <v>3283</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9543</v>
+        <v>8729</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01070498609089293</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003213081683735583</v>
+        <v>0.003193422220422456</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03111839804039657</v>
+        <v>0.02846264753535437</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1070,19 +1070,19 @@
         <v>6999</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2723</v>
+        <v>2640</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14752</v>
+        <v>15296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008979769258431641</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003493605135372165</v>
+        <v>0.003387176002758454</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0189284024534075</v>
+        <v>0.01962547799209597</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>262976</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>244228</v>
+        <v>244592</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>278905</v>
+        <v>278308</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7166850816833069</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.665591182026661</v>
+        <v>0.6665842893074162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7600964716021432</v>
+        <v>0.7584696941769624</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>245</v>
@@ -1195,19 +1195,19 @@
         <v>250126</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>232540</v>
+        <v>231321</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>267563</v>
+        <v>266890</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6726265050710115</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6253353557080229</v>
+        <v>0.6220576481041457</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7195176387295625</v>
+        <v>0.7177053749502633</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>494</v>
@@ -1216,19 +1216,19 @@
         <v>513102</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>488572</v>
+        <v>484604</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>538781</v>
+        <v>538653</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6945087704704688</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6613059028134708</v>
+        <v>0.6559349637311248</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7292664060366998</v>
+        <v>0.7290932781565537</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>64807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>50709</v>
+        <v>51230</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79521</v>
+        <v>79923</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1766171355925635</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1381953678517689</v>
+        <v>0.1396153429011902</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2167169490951997</v>
+        <v>0.217814333929196</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>85</v>
@@ -1266,19 +1266,19 @@
         <v>86807</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>71970</v>
+        <v>71072</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>103070</v>
+        <v>103695</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2334364915206414</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.193538799402311</v>
+        <v>0.1911231642279669</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2771711566409399</v>
+        <v>0.278850209554263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>150</v>
@@ -1287,19 +1287,19 @@
         <v>151614</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>130187</v>
+        <v>129109</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>174435</v>
+        <v>174159</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2052164190206722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.176214130658601</v>
+        <v>0.1747546570293942</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2361063550992847</v>
+        <v>0.2357326855751337</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>23876</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15440</v>
+        <v>15145</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>35666</v>
+        <v>34544</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06506857038286701</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04207891107034174</v>
+        <v>0.04127463008892088</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09719883170907784</v>
+        <v>0.09414344397782629</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>21</v>
@@ -1337,19 +1337,19 @@
         <v>23046</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14992</v>
+        <v>14075</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34768</v>
+        <v>34403</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06197500444713343</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04031503565077159</v>
+        <v>0.03784939285153172</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09349565324507031</v>
+        <v>0.09251404207891134</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>44</v>
@@ -1358,19 +1358,19 @@
         <v>46922</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>34975</v>
+        <v>34724</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>61432</v>
+        <v>64189</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06351146422503627</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04734041967279187</v>
+        <v>0.04700040450665402</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08315109385572642</v>
+        <v>0.08688303220781672</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>12784</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>6361</v>
+        <v>7090</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22157</v>
+        <v>21521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03484069956105288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01733646531783154</v>
+        <v>0.01932140586912642</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06038324297796734</v>
+        <v>0.05865185892188633</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -1408,19 +1408,19 @@
         <v>9189</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4144</v>
+        <v>4235</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16398</v>
+        <v>16524</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02471055078992677</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0111443254864545</v>
+        <v>0.01138785967300158</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04409567282718879</v>
+        <v>0.04443415427718805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>20</v>
@@ -1429,19 +1429,19 @@
         <v>21973</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>13453</v>
+        <v>13733</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33165</v>
+        <v>34100</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02974182099859498</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01820913927531157</v>
+        <v>0.01858854942281911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04489020890105525</v>
+        <v>0.04615549251929205</v>
       </c>
     </row>
     <row r="14">
@@ -1461,7 +1461,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7513</v>
+        <v>9018</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006788512780209643</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0204751086593864</v>
+        <v>0.02457629160506747</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1479,19 +1479,19 @@
         <v>2697</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7266</v>
+        <v>7985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.007251448171286824</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002146588281095029</v>
+        <v>0.002135210311148934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01953818217114794</v>
+        <v>0.0214733706706529</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>5</v>
@@ -1500,19 +1500,19 @@
         <v>5187</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1752</v>
+        <v>1859</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12371</v>
+        <v>12531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007021525285227781</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00237193169018947</v>
+        <v>0.002516241526651697</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01674502424734703</v>
+        <v>0.01696102336091574</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>372553</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>350255</v>
+        <v>350415</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>392575</v>
+        <v>395551</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.686873615646541</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6457631370009115</v>
+        <v>0.6460584430507161</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7237888852717073</v>
+        <v>0.7292759203018226</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>107</v>
@@ -1625,19 +1625,19 @@
         <v>107943</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>95396</v>
+        <v>93830</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>119608</v>
+        <v>120516</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6433556328845359</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5685739913950282</v>
+        <v>0.5592383128493997</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7128765999176859</v>
+        <v>0.7182893869450048</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>473</v>
@@ -1646,19 +1646,19 @@
         <v>480496</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>453010</v>
+        <v>457072</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>504168</v>
+        <v>504457</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6765922465914066</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6378886048851988</v>
+        <v>0.6436084133261493</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7099250682837815</v>
+        <v>0.7103322175791158</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>116036</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>97663</v>
+        <v>98574</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>136455</v>
+        <v>135966</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2139343541401049</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.180061262038797</v>
+        <v>0.1817401034409982</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2515809159186316</v>
+        <v>0.2506806757614488</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1696,19 +1696,19 @@
         <v>39455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>30007</v>
+        <v>29733</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>50631</v>
+        <v>51757</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2351552267030374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1788424248335496</v>
+        <v>0.1772123447670526</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3017656922921472</v>
+        <v>0.3084756637578589</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>152</v>
@@ -1717,19 +1717,19 @@
         <v>155490</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>135261</v>
+        <v>131848</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>178342</v>
+        <v>175384</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2189479050596106</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1904631092873275</v>
+        <v>0.1856569573681671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2511259733245505</v>
+        <v>0.2469597101646138</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>41022</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30648</v>
+        <v>28942</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55593</v>
+        <v>54683</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07563167147250605</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05650579551611124</v>
+        <v>0.05335947985891438</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1024961627506756</v>
+        <v>0.1008194769948009</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -1767,19 +1767,19 @@
         <v>14795</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8819</v>
+        <v>8725</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>23470</v>
+        <v>23034</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.08817858564037372</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.05256365729631311</v>
+        <v>0.05200085981091601</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1398817522063524</v>
+        <v>0.1372848335757963</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>54</v>
@@ -1788,19 +1788,19 @@
         <v>55817</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>42535</v>
+        <v>42677</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>72714</v>
+        <v>72343</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07859595076294158</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05989421977837518</v>
+        <v>0.06009420603656175</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.102389986877934</v>
+        <v>0.1018666708965416</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>12779</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6760</v>
+        <v>6977</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21426</v>
+        <v>21238</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.023560358740848</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0124633701769093</v>
+        <v>0.01286305453319435</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03950354432234178</v>
+        <v>0.03915659292347403</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1838,19 +1838,19 @@
         <v>3852</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>11105</v>
+        <v>10097</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02296075768551575</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005871486147858586</v>
+        <v>0.005935030825775573</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06618632564024836</v>
+        <v>0.06018146008766252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>16</v>
@@ -1859,19 +1859,19 @@
         <v>16631</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10133</v>
+        <v>9966</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>28297</v>
+        <v>28058</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02341869960721046</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01426792023147199</v>
+        <v>0.01403383744405217</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.03984593045916322</v>
+        <v>0.03950933976235529</v>
       </c>
     </row>
     <row r="20">
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>8813</v>
+        <v>7872</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01034979708653722</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.05252598313714051</v>
+        <v>0.04691798807106343</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1</v>
@@ -1925,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>8667</v>
+        <v>8680</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.002445197978830707</v>
@@ -1934,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01220367140936272</v>
+        <v>0.01222237739893985</v>
       </c>
     </row>
     <row r="21">
@@ -2026,19 +2026,19 @@
         <v>844550</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>813059</v>
+        <v>811581</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>876534</v>
+        <v>876771</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6820051532194388</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6565752270044987</v>
+        <v>0.6553810384357095</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7078331380197346</v>
+        <v>0.7080242914539532</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>431</v>
@@ -2047,19 +2047,19 @@
         <v>436661</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>406847</v>
+        <v>406842</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>461531</v>
+        <v>462726</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6113253244232997</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5695867679323063</v>
+        <v>0.5695796232071023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6461437308563088</v>
+        <v>0.6478164509510403</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1262</v>
@@ -2068,19 +2068,19 @@
         <v>1281211</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1243577</v>
+        <v>1238221</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1327781</v>
+        <v>1326457</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6561498553048244</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6368761748115737</v>
+        <v>0.6341331731691053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6799999168779841</v>
+        <v>0.6793213786273156</v>
       </c>
     </row>
     <row r="23">
@@ -2097,19 +2097,19 @@
         <v>265316</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>237963</v>
+        <v>236926</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>295154</v>
+        <v>293667</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2142522381089622</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1921638532050599</v>
+        <v>0.1913262723843902</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2383476196984155</v>
+        <v>0.2371470041725124</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>159</v>
@@ -2118,19 +2118,19 @@
         <v>166650</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>147314</v>
+        <v>143692</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>192134</v>
+        <v>191734</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2333106437941262</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2062400233297354</v>
+        <v>0.2011686711163133</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2689881763909241</v>
+        <v>0.2684273339523113</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>422</v>
@@ -2139,19 +2139,19 @@
         <v>431966</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>395882</v>
+        <v>390377</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>466510</v>
+        <v>471675</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2212239691552945</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2027441199628772</v>
+        <v>0.1999245572650749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2389147537103811</v>
+        <v>0.241559823687906</v>
       </c>
     </row>
     <row r="24">
@@ -2168,19 +2168,19 @@
         <v>91494</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>75053</v>
+        <v>73696</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111727</v>
+        <v>110706</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07388435355853179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06060781707453457</v>
+        <v>0.05951191989517606</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09022365717091285</v>
+        <v>0.08939894221381431</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -2189,19 +2189,19 @@
         <v>71155</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>56064</v>
+        <v>55891</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>89073</v>
+        <v>89947</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09961749512770576</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07849010577241868</v>
+        <v>0.07824784543019124</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.124701878170591</v>
+        <v>0.1259254007284502</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>161</v>
@@ -2210,19 +2210,19 @@
         <v>162649</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>140168</v>
+        <v>139241</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>188513</v>
+        <v>187203</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08329776121503542</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.07178478777439011</v>
+        <v>0.07130984192862062</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09654362708480731</v>
+        <v>0.09587290087260084</v>
       </c>
     </row>
     <row r="25">
@@ -2239,19 +2239,19 @@
         <v>29640</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>20434</v>
+        <v>19465</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>42418</v>
+        <v>42395</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0239353910420672</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01650109766008776</v>
+        <v>0.01571895791991451</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03425384810158181</v>
+        <v>0.03423514057799096</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>28</v>
@@ -2260,19 +2260,19 @@
         <v>30222</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>20646</v>
+        <v>20076</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>43086</v>
+        <v>42893</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04231043048911881</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02890495942393888</v>
+        <v>0.02810670231574467</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06032055722892876</v>
+        <v>0.06004967547399993</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>57</v>
@@ -2281,19 +2281,19 @@
         <v>59862</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>45583</v>
+        <v>45603</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>75891</v>
+        <v>80152</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.03065714075748619</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02334463792602536</v>
+        <v>0.0233545381722155</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.03886638072194409</v>
+        <v>0.04104836824156185</v>
       </c>
     </row>
     <row r="26">
@@ -2310,19 +2310,19 @@
         <v>7334</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2903</v>
+        <v>2938</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>15794</v>
+        <v>14887</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.005922864070999969</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002344488767528623</v>
+        <v>0.002372418734395204</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01275452674727557</v>
+        <v>0.01202165788416447</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>9</v>
@@ -2331,19 +2331,19 @@
         <v>9597</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5040</v>
+        <v>4305</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18106</v>
+        <v>17553</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01343610616574955</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00705545954538132</v>
+        <v>0.006026979970650482</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02534784037233998</v>
+        <v>0.02457466912571917</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>16</v>
@@ -2352,19 +2352,19 @@
         <v>16932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10380</v>
+        <v>9652</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26962</v>
+        <v>26824</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008671273567359463</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005316074543301905</v>
+        <v>0.004943268653445398</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01380814355339725</v>
+        <v>0.01373756646247389</v>
       </c>
     </row>
     <row r="27">
@@ -2456,19 +2456,19 @@
         <v>229234</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>211090</v>
+        <v>210573</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>247032</v>
+        <v>245363</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6539166160740282</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6021599266121382</v>
+        <v>0.6006834565505752</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7046888317006633</v>
+        <v>0.6999280105986785</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>306</v>
@@ -2477,19 +2477,19 @@
         <v>321218</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>296057</v>
+        <v>295789</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>343527</v>
+        <v>344175</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5647769599909437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5205373879690969</v>
+        <v>0.5200661912988523</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6040008884586537</v>
+        <v>0.6051401448166509</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>529</v>
@@ -2498,19 +2498,19 @@
         <v>550452</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>521153</v>
+        <v>520261</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>584440</v>
+        <v>579823</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5987681864471084</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5668978862293101</v>
+        <v>0.5659270942952374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6357401764913142</v>
+        <v>0.6307172667117343</v>
       </c>
     </row>
     <row r="29">
@@ -2527,19 +2527,19 @@
         <v>63518</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>49172</v>
+        <v>49950</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78867</v>
+        <v>79082</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1811937571575132</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1402695582382341</v>
+        <v>0.1424896836977361</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2249773357704845</v>
+        <v>0.2255915027885695</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>131</v>
@@ -2548,19 +2548,19 @@
         <v>138546</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>118989</v>
+        <v>120648</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>160885</v>
+        <v>159094</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2435960436473044</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2092113361905488</v>
+        <v>0.2121276010995365</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2828741392379966</v>
+        <v>0.279725551068511</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>193</v>
@@ -2569,19 +2569,19 @@
         <v>202064</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>175276</v>
+        <v>178012</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>227687</v>
+        <v>232570</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2198004587789949</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1906609211393897</v>
+        <v>0.1936372736499103</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2476724337004054</v>
+        <v>0.2529839815675003</v>
       </c>
     </row>
     <row r="30">
@@ -2598,19 +2598,19 @@
         <v>40098</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>29207</v>
+        <v>29261</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>53424</v>
+        <v>53533</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1143832854730243</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08331599834375612</v>
+        <v>0.08347081214003135</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1523974629860471</v>
+        <v>0.1527098757399012</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>54</v>
@@ -2619,19 +2619,19 @@
         <v>58078</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45778</v>
+        <v>44930</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75640</v>
+        <v>74027</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1021156813807213</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08048898051947709</v>
+        <v>0.07899721783583609</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1329934866936135</v>
+        <v>0.1301573485201118</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>92</v>
@@ -2640,19 +2640,19 @@
         <v>98176</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>80134</v>
+        <v>79821</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>119888</v>
+        <v>118281</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1067936319932678</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08716820941643492</v>
+        <v>0.08682748341058613</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1304110747764818</v>
+        <v>0.1286627203968692</v>
       </c>
     </row>
     <row r="31">
@@ -2669,19 +2669,19 @@
         <v>13191</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>6928</v>
+        <v>7193</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>22121</v>
+        <v>22492</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.03762863764194749</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01976262137483946</v>
+        <v>0.02051774936933786</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06310340172258727</v>
+        <v>0.06416049160039826</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>42</v>
@@ -2690,19 +2690,19 @@
         <v>44725</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>33679</v>
+        <v>32876</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>59953</v>
+        <v>58179</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07863736181694481</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05921623702231607</v>
+        <v>0.05780431031240305</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1054122666066086</v>
+        <v>0.1022925705764153</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>55</v>
@@ -2711,19 +2711,19 @@
         <v>57916</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>44555</v>
+        <v>44560</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>75314</v>
+        <v>73950</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06299968840241557</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04846541461599084</v>
+        <v>0.04847167295130203</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08192511899808461</v>
+        <v>0.08044096868576994</v>
       </c>
     </row>
     <row r="32">
@@ -2740,19 +2740,19 @@
         <v>4514</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1532</v>
+        <v>1511</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11568</v>
+        <v>10741</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01287770365348686</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004370510666705314</v>
+        <v>0.004311096549998967</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.03299801009930494</v>
+        <v>0.03064079410385303</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>6</v>
@@ -2761,19 +2761,19 @@
         <v>6185</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2773</v>
+        <v>2781</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13348</v>
+        <v>13336</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01087395316408577</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004875969506776409</v>
+        <v>0.00488906446719702</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02346919199867116</v>
+        <v>0.02344811286079515</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>10</v>
@@ -2782,19 +2782,19 @@
         <v>10699</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>5379</v>
+        <v>5276</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>19396</v>
+        <v>19087</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01163803437821341</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.00585112268809698</v>
+        <v>0.005738671973776948</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02109810205151648</v>
+        <v>0.0207627284925761</v>
       </c>
     </row>
     <row r="33">
@@ -2886,19 +2886,19 @@
         <v>252581</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>238960</v>
+        <v>239547</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>263454</v>
+        <v>263726</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.8470165102301895</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.8013394628357102</v>
+        <v>0.8033063404576184</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8834795432606289</v>
+        <v>0.8843884092908206</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>782</v>
@@ -2907,19 +2907,19 @@
         <v>781527</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>748593</v>
+        <v>745871</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>817859</v>
+        <v>813448</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6258424715308359</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.599468765617187</v>
+        <v>0.5972892765157413</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6549369323522186</v>
+        <v>0.6514045920600059</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>1040</v>
@@ -2928,19 +2928,19 @@
         <v>1034107</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>994554</v>
+        <v>996058</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>1072001</v>
+        <v>1067815</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6684771897304466</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6429083527963827</v>
+        <v>0.6438810678556239</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6929728259339911</v>
+        <v>0.6902667181628387</v>
       </c>
     </row>
     <row r="35">
@@ -2957,19 +2957,19 @@
         <v>34754</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>24937</v>
+        <v>25408</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>45481</v>
+        <v>46342</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1165454011122331</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.08362437334017193</v>
+        <v>0.08520505326782227</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1525187419075134</v>
+        <v>0.1554046949775092</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>243</v>
@@ -2978,19 +2978,19 @@
         <v>245994</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>216093</v>
+        <v>218206</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>274575</v>
+        <v>274017</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1969905590136858</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1730460483577966</v>
+        <v>0.1747381392094278</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2198780612350064</v>
+        <v>0.219431097069219</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>280</v>
@@ -2999,19 +2999,19 @@
         <v>280748</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>252996</v>
+        <v>255994</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>313019</v>
+        <v>314128</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1814835100950116</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.163544197239249</v>
+        <v>0.1654818974900653</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2023442852637486</v>
+        <v>0.2030612463211744</v>
       </c>
     </row>
     <row r="36">
@@ -3028,19 +3028,19 @@
         <v>9951</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>5077</v>
+        <v>4729</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>18061</v>
+        <v>17707</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0333717751913963</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01702384385857145</v>
+        <v>0.01585950412221172</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06056757908682434</v>
+        <v>0.05937812573582176</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>127</v>
@@ -3049,19 +3049,19 @@
         <v>130887</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>110414</v>
+        <v>111399</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>153178</v>
+        <v>155000</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1048135810516373</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08841899911709562</v>
+        <v>0.08920751183988676</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1226637763222836</v>
+        <v>0.1241234553884386</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>137</v>
@@ -3070,19 +3070,19 @@
         <v>140838</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>119087</v>
+        <v>118177</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>164776</v>
+        <v>161800</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09104206754835936</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.07698143268692859</v>
+        <v>0.07639327624710938</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1065157066595597</v>
+        <v>0.1045923161990316</v>
       </c>
     </row>
     <row r="37">
@@ -3102,7 +3102,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>4574</v>
+        <v>4614</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003066313466181129</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.0153375588930717</v>
+        <v>0.01547137403781883</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -3120,19 +3120,19 @@
         <v>72810</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>57007</v>
+        <v>58425</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>89771</v>
+        <v>91580</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.05830623704982996</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.04565078075982861</v>
+        <v>0.04678604973194517</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.07188832220758835</v>
+        <v>0.07333710485764069</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>71</v>
@@ -3141,19 +3141,19 @@
         <v>73725</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>58416</v>
+        <v>59334</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>91307</v>
+        <v>91663</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.04765788704814517</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.03776175967453159</v>
+        <v>0.03835544330244737</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.05902338054765243</v>
+        <v>0.0592533365783669</v>
       </c>
     </row>
     <row r="38">
@@ -3183,19 +3183,19 @@
         <v>17542</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>10300</v>
+        <v>10305</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>27338</v>
+        <v>27787</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01404715135401097</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.008248554523226294</v>
+        <v>0.008252093949382809</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.02189194589962423</v>
+        <v>0.02225178461118053</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>16</v>
@@ -3204,19 +3204,19 @@
         <v>17542</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>10746</v>
+        <v>9802</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>28407</v>
+        <v>27297</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.01133934557803729</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.006946220980134989</v>
+        <v>0.006336105996454923</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01836296004762513</v>
+        <v>0.01764551954861649</v>
       </c>
     </row>
     <row r="39">
@@ -3308,19 +3308,19 @@
         <v>2295203</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2241040</v>
+        <v>2243383</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2342222</v>
+        <v>2349481</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7020888392289534</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.685520704920159</v>
+        <v>0.6862374511495904</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7164716107476858</v>
+        <v>0.7186920650590148</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2068</v>
@@ -3329,19 +3329,19 @@
         <v>2097548</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2039042</v>
+        <v>2041496</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2150905</v>
+        <v>2154630</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6209210838531768</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6036019299631359</v>
+        <v>0.6043282653267267</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6367159248759199</v>
+        <v>0.6378185730035304</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4318</v>
@@ -3350,19 +3350,19 @@
         <v>4392751</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4306511</v>
+        <v>4306003</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4467481</v>
+        <v>4465346</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6608393616858794</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6478655764222863</v>
+        <v>0.6477890643550677</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.6720815520129036</v>
+        <v>0.6717604300020392</v>
       </c>
     </row>
     <row r="41">
@@ -3379,19 +3379,19 @@
         <v>641615</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>599978</v>
+        <v>600680</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>689053</v>
+        <v>690702</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1962660759785423</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1835295713120921</v>
+        <v>0.1837444704455301</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2107771815424904</v>
+        <v>0.2112815669850436</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>724</v>
@@ -3400,19 +3400,19 @@
         <v>748737</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>705872</v>
+        <v>699680</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>800402</v>
+        <v>796946</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.221642729384274</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2089538662049843</v>
+        <v>0.2071209942087159</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2369369467650752</v>
+        <v>0.2359137485289097</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1359</v>
@@ -3421,19 +3421,19 @@
         <v>1390351</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1324559</v>
+        <v>1327201</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1451818</v>
+        <v>1459602</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2091624988244363</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1992647804570868</v>
+        <v>0.1996622537004883</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2184094711499767</v>
+        <v>0.2195804143479625</v>
       </c>
     </row>
     <row r="42">
@@ -3450,19 +3450,19 @@
         <v>233900</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>204052</v>
+        <v>206359</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>265254</v>
+        <v>262432</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07154876106234026</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.0624182423718397</v>
+        <v>0.06312405680462427</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.08113976526627818</v>
+        <v>0.08027646994605135</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>305</v>
@@ -3471,19 +3471,19 @@
         <v>319616</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>288565</v>
+        <v>285081</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>356508</v>
+        <v>356433</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.09461335505991518</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.08542168892448497</v>
+        <v>0.08439043414017537</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1055343961164151</v>
+        <v>0.105512049056995</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>534</v>
@@ -3492,19 +3492,19 @@
         <v>553516</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>504739</v>
+        <v>509188</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>596910</v>
+        <v>600033</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.08327019462593264</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.07593216608990482</v>
+        <v>0.07660153971360716</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08979830674959867</v>
+        <v>0.09026817938916225</v>
       </c>
     </row>
     <row r="43">
@@ -3521,19 +3521,19 @@
         <v>80333</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>64982</v>
+        <v>63461</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>100996</v>
+        <v>99863</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02457330120845691</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01987758105923956</v>
+        <v>0.01941244783899608</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03089408899192281</v>
+        <v>0.03054755138635506</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>161</v>
@@ -3542,19 +3542,19 @@
         <v>171184</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>145865</v>
+        <v>146837</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>196905</v>
+        <v>200737</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.05067425824674739</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.04317927137885924</v>
+        <v>0.04346693059189647</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.05828824478058879</v>
+        <v>0.05942247903499336</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>237</v>
@@ -3563,19 +3563,19 @@
         <v>251517</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>218380</v>
+        <v>219369</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>284516</v>
+        <v>284848</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03783781537691219</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03285274483743215</v>
+        <v>0.03300159225632213</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.04280220851064158</v>
+        <v>0.04285209592268402</v>
       </c>
     </row>
     <row r="44">
@@ -3592,19 +3592,19 @@
         <v>18055</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10407</v>
+        <v>10348</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>28408</v>
+        <v>28725</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005523022521707163</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003183364955549496</v>
+        <v>0.003165348238637693</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008689692977505614</v>
+        <v>0.008786820817995684</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>38</v>
@@ -3613,19 +3613,19 @@
         <v>41039</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>29363</v>
+        <v>30111</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>55302</v>
+        <v>56397</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.01214857345588663</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.008692213163604577</v>
+        <v>0.008913388164453275</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01637067701284516</v>
+        <v>0.01669469955832096</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>54</v>
@@ -3634,19 +3634,19 @@
         <v>59095</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>43994</v>
+        <v>43620</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>75988</v>
+        <v>76510</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.008890129486839418</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.006618377090974673</v>
+        <v>0.00656208154182763</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01143154481633794</v>
+        <v>0.01151004133161286</v>
       </c>
     </row>
     <row r="45">
@@ -3980,19 +3980,19 @@
         <v>333133</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>313713</v>
+        <v>316219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>351293</v>
+        <v>350310</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.7637801195309588</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7192566708376499</v>
+        <v>0.7250009095484728</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8054159700439997</v>
+        <v>0.8031635473334618</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -4001,19 +4001,19 @@
         <v>230209</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>213998</v>
+        <v>212437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>245906</v>
+        <v>246422</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.7345519132728969</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6828249294966291</v>
+        <v>0.6778434354437753</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7846368341710579</v>
+        <v>0.786281873297575</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>514</v>
@@ -4022,19 +4022,19 @@
         <v>563342</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>536406</v>
+        <v>538682</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>586511</v>
+        <v>589624</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.7515594657425287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7156245585545449</v>
+        <v>0.7186605915017353</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7824690311827497</v>
+        <v>0.7866221909118654</v>
       </c>
     </row>
     <row r="5">
@@ -4051,19 +4051,19 @@
         <v>67335</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52315</v>
+        <v>53313</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>84575</v>
+        <v>82293</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1543799836441119</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1199443571361017</v>
+        <v>0.12223225327706</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1939070871463537</v>
+        <v>0.1886755334059426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>55</v>
@@ -4072,19 +4072,19 @@
         <v>61560</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>48237</v>
+        <v>47256</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>76587</v>
+        <v>77061</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1964272012670517</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.153913727295295</v>
+        <v>0.150784713145145</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2443725975781043</v>
+        <v>0.2458866135829401</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>120</v>
@@ -4093,19 +4093,19 @@
         <v>128895</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108223</v>
+        <v>109223</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151907</v>
+        <v>152008</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.171960415532401</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1443810230626873</v>
+        <v>0.1457156831569335</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2026607755403332</v>
+        <v>0.2027948835221832</v>
       </c>
     </row>
     <row r="6">
@@ -4122,19 +4122,19 @@
         <v>30365</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20015</v>
+        <v>20001</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42781</v>
+        <v>42365</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.06961931012671434</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04588991748156812</v>
+        <v>0.04585734732037725</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0980837863291143</v>
+        <v>0.09713118607408333</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -4143,19 +4143,19 @@
         <v>12937</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6636</v>
+        <v>6463</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>23755</v>
+        <v>22081</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04128039550400008</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02117453161347132</v>
+        <v>0.0206236148944372</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07579616654860101</v>
+        <v>0.07045552454321193</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>39</v>
@@ -4164,19 +4164,19 @@
         <v>43303</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31464</v>
+        <v>31849</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>59159</v>
+        <v>58921</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05777047953867424</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04197600967213121</v>
+        <v>0.04249041836081936</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07892458186629399</v>
+        <v>0.07860654564764208</v>
       </c>
     </row>
     <row r="7">
@@ -4193,19 +4193,19 @@
         <v>5330</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1998</v>
+        <v>1890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11927</v>
+        <v>12468</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01222058669821501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.004581156341078413</v>
+        <v>0.004333760084703828</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02734507976736053</v>
+        <v>0.02858645203783273</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>7</v>
@@ -4214,19 +4214,19 @@
         <v>8694</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>3831</v>
+        <v>3611</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>18268</v>
+        <v>17238</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02774048995605122</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01222408334181163</v>
+        <v>0.01152288089093075</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05828991111737808</v>
+        <v>0.05500426835656946</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -4235,19 +4235,19 @@
         <v>14024</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>7203</v>
+        <v>7050</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>24803</v>
+        <v>23908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01870963918639601</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.009610139761130542</v>
+        <v>0.00940502122585833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03308964602958365</v>
+        <v>0.03189653341977212</v>
       </c>
     </row>
     <row r="8">
@@ -4386,19 +4386,19 @@
         <v>306846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>285191</v>
+        <v>284665</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>323905</v>
+        <v>325735</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7349486414116687</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6830812621996272</v>
+        <v>0.6818206707017211</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7758078196061532</v>
+        <v>0.7801906714106343</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>205</v>
@@ -4407,19 +4407,19 @@
         <v>228406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>209301</v>
+        <v>211406</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>244871</v>
+        <v>245142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6778187899242097</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6211237720122801</v>
+        <v>0.6273683749321841</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7266808380992992</v>
+        <v>0.7274844758703114</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>484</v>
@@ -4428,19 +4428,19 @@
         <v>535252</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>504132</v>
+        <v>509334</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>560095</v>
+        <v>560015</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7094328257571475</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6681861536437252</v>
+        <v>0.6750801887051492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7423600887718015</v>
+        <v>0.7422534357290023</v>
       </c>
     </row>
     <row r="11">
@@ -4457,19 +4457,19 @@
         <v>82760</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>67227</v>
+        <v>66158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>102318</v>
+        <v>101914</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1982230450793018</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1610194557067101</v>
+        <v>0.1584591195825981</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2450678825621365</v>
+        <v>0.2441018133878768</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>68</v>
@@ -4478,19 +4478,19 @@
         <v>74970</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59801</v>
+        <v>60403</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>91563</v>
+        <v>91496</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2224799280094541</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1774661448373258</v>
+        <v>0.1792512473884279</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2717228030801315</v>
+        <v>0.2715229286530997</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>139</v>
@@ -4499,19 +4499,19 @@
         <v>157729</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>133764</v>
+        <v>135531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>181696</v>
+        <v>180867</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2090568585250611</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1772926228535555</v>
+        <v>0.1796353253998237</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2408231301630966</v>
+        <v>0.2397244601269805</v>
       </c>
     </row>
     <row r="12">
@@ -4528,19 +4528,19 @@
         <v>22839</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13862</v>
+        <v>14433</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>33908</v>
+        <v>36006</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.05470215079274898</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03320142196460396</v>
+        <v>0.0345703814307916</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08121512479988423</v>
+        <v>0.08624089653834031</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -4549,19 +4549,19 @@
         <v>21603</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>13586</v>
+        <v>13275</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>32290</v>
+        <v>31880</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06410878344639576</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.04031827781979854</v>
+        <v>0.03939638931898738</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09582279826047801</v>
+        <v>0.09460638134084071</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>40</v>
@@ -4570,19 +4570,19 @@
         <v>44441</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>32509</v>
+        <v>31667</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>60385</v>
+        <v>60169</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.05890342032997048</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.04308762408940032</v>
+        <v>0.04197251197909252</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08003599433519372</v>
+        <v>0.07974841025449853</v>
       </c>
     </row>
     <row r="13">
@@ -4602,7 +4602,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5752</v>
+        <v>6594</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.004535011965424549</v>
@@ -4611,7 +4611,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01377725238917081</v>
+        <v>0.01579450242791395</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -4620,19 +4620,19 @@
         <v>5738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13052</v>
+        <v>11889</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01702766553392365</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005958867520290476</v>
+        <v>0.005927757333904557</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03873226270862659</v>
+        <v>0.03528331607738364</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4641,19 +4641,19 @@
         <v>7631</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3018</v>
+        <v>2946</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16195</v>
+        <v>15002</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01011458616683119</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.004000560723345863</v>
+        <v>0.003904410884663824</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0214654972838772</v>
+        <v>0.01988387885563445</v>
       </c>
     </row>
     <row r="14">
@@ -4673,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12188</v>
+        <v>10687</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007591150750856025</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0291916206924805</v>
+        <v>0.02559608287433723</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -4691,19 +4691,19 @@
         <v>6256</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2967</v>
+        <v>2151</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13104</v>
+        <v>12607</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01856483308601676</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008803823504819121</v>
+        <v>0.006383810808470902</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03888653738663084</v>
+        <v>0.03741280669756338</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -4712,19 +4712,19 @@
         <v>9425</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>4209</v>
+        <v>4074</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>18814</v>
+        <v>18672</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01249230922098966</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0055789373819127</v>
+        <v>0.005399567716267945</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02493669580460148</v>
+        <v>0.02474807536803668</v>
       </c>
     </row>
     <row r="15">
@@ -4816,19 +4816,19 @@
         <v>461662</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>437314</v>
+        <v>438418</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>483446</v>
+        <v>483785</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7334777368196032</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6947948819177689</v>
+        <v>0.6965486777882037</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7680885379515855</v>
+        <v>0.7686272107243571</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>165</v>
@@ -4837,19 +4837,19 @@
         <v>177119</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>160905</v>
+        <v>160014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191271</v>
+        <v>191577</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6808892563583417</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.618559320294542</v>
+        <v>0.6151328536311707</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7352933151958948</v>
+        <v>0.736469402192745</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>601</v>
@@ -4858,19 +4858,19 @@
         <v>638781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>608063</v>
+        <v>609926</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>665797</v>
+        <v>664165</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7180992871796181</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6835669577194502</v>
+        <v>0.6856615462602136</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7484695505900981</v>
+        <v>0.7466357127648284</v>
       </c>
     </row>
     <row r="17">
@@ -4887,19 +4887,19 @@
         <v>130169</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109153</v>
+        <v>108750</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153495</v>
+        <v>150905</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2068095961593185</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1734202528555981</v>
+        <v>0.1727796147702215</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2438685956032034</v>
+        <v>0.2397537807108596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>58</v>
@@ -4908,19 +4908,19 @@
         <v>61140</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48646</v>
+        <v>46920</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76281</v>
+        <v>75745</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2350374559230589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1870082818663574</v>
+        <v>0.1803720327715275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2932436698224516</v>
+        <v>0.2911840183309634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>178</v>
@@ -4929,19 +4929,19 @@
         <v>191309</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>167950</v>
+        <v>166705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>220025</v>
+        <v>217131</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2150642693503611</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1888045381307232</v>
+        <v>0.1874047363959058</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2473456070532479</v>
+        <v>0.2440928759596287</v>
       </c>
     </row>
     <row r="18">
@@ -4958,19 +4958,19 @@
         <v>27337</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>18131</v>
+        <v>18116</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40608</v>
+        <v>40243</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04343232351103373</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02880630149807721</v>
+        <v>0.02878213990837411</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.06451678300656272</v>
+        <v>0.06393654765586176</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -4979,19 +4979,19 @@
         <v>14947</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8838</v>
+        <v>8764</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>24500</v>
+        <v>24236</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.05746079094964726</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03397532331857146</v>
+        <v>0.03369216505920143</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.09418528393564594</v>
+        <v>0.09316790951505216</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>39</v>
@@ -5000,19 +5000,19 @@
         <v>42284</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>30482</v>
+        <v>31092</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>56904</v>
+        <v>56728</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.04753466832378807</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03426716469176677</v>
+        <v>0.03495294794364168</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.06397008151929207</v>
+        <v>0.06377222461221611</v>
       </c>
     </row>
     <row r="19">
@@ -5029,19 +5029,19 @@
         <v>8472</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3962</v>
+        <v>4050</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15038</v>
+        <v>15883</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01345999001523536</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.006293976617230609</v>
+        <v>0.006434302178331524</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02389237611827746</v>
+        <v>0.02523479428032736</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>6</v>
@@ -5050,19 +5050,19 @@
         <v>5967</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2001</v>
+        <v>2090</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12514</v>
+        <v>12957</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02293704471215479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.007693490081861314</v>
+        <v>0.00803306634393002</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04810578013419942</v>
+        <v>0.04981114216970998</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -5071,19 +5071,19 @@
         <v>14439</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>8651</v>
+        <v>7965</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23606</v>
+        <v>23529</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01623136517408442</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009724680880331456</v>
+        <v>0.008954402811560879</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02653699554274964</v>
+        <v>0.02645093979716717</v>
       </c>
     </row>
     <row r="20">
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6297</v>
+        <v>5743</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.002820353494809257</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01000407424789341</v>
+        <v>0.00912402631014545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4875</v>
+        <v>5680</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.003675452056797277</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01873999498569978</v>
+        <v>0.0218363515022666</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3</v>
@@ -5142,19 +5142,19 @@
         <v>2731</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>7489</v>
+        <v>7333</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.003070409972148306</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0008717157705825213</v>
+        <v>0.0008697667803578585</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.008419464711450726</v>
+        <v>0.008244024634118288</v>
       </c>
     </row>
     <row r="21">
@@ -5246,19 +5246,19 @@
         <v>815315</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>780029</v>
+        <v>780715</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>846444</v>
+        <v>846339</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7058493685463395</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6753010508201002</v>
+        <v>0.6758945239230002</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.732798924949839</v>
+        <v>0.7327077746659996</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>470</v>
@@ -5267,19 +5267,19 @@
         <v>502791</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>474959</v>
+        <v>472217</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>527875</v>
+        <v>528394</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6558221145441294</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6195192217233026</v>
+        <v>0.6159423443571006</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6885414529571521</v>
+        <v>0.689218254633971</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1237</v>
@@ -5288,19 +5288,19 @@
         <v>1318106</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1274043</v>
+        <v>1273078</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1357487</v>
+        <v>1358864</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6858915484554803</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6629628239125925</v>
+        <v>0.6624607441678094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.706383992353711</v>
+        <v>0.7071004359126655</v>
       </c>
     </row>
     <row r="23">
@@ -5317,19 +5317,19 @@
         <v>220909</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>194366</v>
+        <v>194734</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>250294</v>
+        <v>249419</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1912490804936617</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1682701287809453</v>
+        <v>0.1685882140409468</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2166887235052104</v>
+        <v>0.2159318129708742</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>167</v>
@@ -5338,19 +5338,19 @@
         <v>178812</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>155619</v>
+        <v>156494</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>202677</v>
+        <v>204696</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.233235867773385</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.20298431599863</v>
+        <v>0.2041251817356549</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2643652811531244</v>
+        <v>0.2669978817704297</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>370</v>
@@ -5359,19 +5359,19 @@
         <v>399721</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>364839</v>
+        <v>365351</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>440758</v>
+        <v>441102</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2079992452475551</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1898482000252699</v>
+        <v>0.1901145052402709</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2293533768274802</v>
+        <v>0.2295323616265391</v>
       </c>
     </row>
     <row r="24">
@@ -5388,19 +5388,19 @@
         <v>91080</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>71573</v>
+        <v>73654</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>111155</v>
+        <v>114527</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.07885182700301364</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06196342009553936</v>
+        <v>0.063765469044016</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09623124673773031</v>
+        <v>0.0991504782611549</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>47</v>
@@ -5409,19 +5409,19 @@
         <v>53168</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>39220</v>
+        <v>41241</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>70311</v>
+        <v>70914</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.06935024341488936</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0511572683062875</v>
+        <v>0.05379313613639586</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09171134978411058</v>
+        <v>0.09249706658891665</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>129</v>
@@ -5430,19 +5430,19 @@
         <v>144248</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>120676</v>
+        <v>121598</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>171128</v>
+        <v>170615</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07506127524053498</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.06279493961681053</v>
+        <v>0.06327507381699972</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08904839895767903</v>
+        <v>0.08878137305247107</v>
       </c>
     </row>
     <row r="25">
@@ -5459,19 +5459,19 @@
         <v>19037</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>11396</v>
+        <v>11653</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>28971</v>
+        <v>29954</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01648119258878284</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.009865779340560068</v>
+        <v>0.0100883521021035</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02508121234806298</v>
+        <v>0.02593192177917713</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>19</v>
@@ -5480,19 +5480,19 @@
         <v>21296</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>14097</v>
+        <v>13110</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>34566</v>
+        <v>31963</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02777832621841147</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01838807492288101</v>
+        <v>0.01709972351895924</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04508691444681763</v>
+        <v>0.04169170460011221</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>37</v>
@@ -5501,19 +5501,19 @@
         <v>40334</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>28522</v>
+        <v>28726</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>56778</v>
+        <v>55439</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.02098805919618374</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01484193553572352</v>
+        <v>0.01494783707216764</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02954504139759695</v>
+        <v>0.02884816302794069</v>
       </c>
     </row>
     <row r="26">
@@ -5530,19 +5530,19 @@
         <v>8742</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4481</v>
+        <v>4319</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16379</v>
+        <v>15833</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0075685313682023</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003879574030875062</v>
+        <v>0.003739368239332687</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01417991916870083</v>
+        <v>0.0137074136586185</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -5551,19 +5551,19 @@
         <v>10590</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>4958</v>
+        <v>5333</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22133</v>
+        <v>22426</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01381344804918474</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.006466943590947671</v>
+        <v>0.006955525195409445</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02886972226532632</v>
+        <v>0.02925129311688665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -5572,19 +5572,19 @@
         <v>19332</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11682</v>
+        <v>11277</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31390</v>
+        <v>29905</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01005987186024584</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006078626023079682</v>
+        <v>0.00586825003633279</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01633430669420415</v>
+        <v>0.01556119605787847</v>
       </c>
     </row>
     <row r="27">
@@ -5676,19 +5676,19 @@
         <v>336212</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>314652</v>
+        <v>314873</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>357979</v>
+        <v>358539</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6612109316086336</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6188102174954029</v>
+        <v>0.6192453711614198</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.70402021986784</v>
+        <v>0.7051204072836754</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>440</v>
@@ -5697,19 +5697,19 @@
         <v>475830</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>447571</v>
+        <v>447958</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>503633</v>
+        <v>503857</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6257440741901127</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5885820045758243</v>
+        <v>0.5890915166394197</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.662307101760498</v>
+        <v>0.6626015891266993</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>767</v>
@@ -5718,19 +5718,19 @@
         <v>812041</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>773606</v>
+        <v>779395</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>844344</v>
+        <v>847770</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6399564927455476</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6096660159884274</v>
+        <v>0.6142286609006562</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6654139997798499</v>
+        <v>0.6681136464263868</v>
       </c>
     </row>
     <row r="29">
@@ -5747,19 +5747,19 @@
         <v>134127</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>114401</v>
+        <v>116509</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>156603</v>
+        <v>154713</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2637803938673099</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2249863455927498</v>
+        <v>0.2291322169563619</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3079837840856822</v>
+        <v>0.3042665939866677</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>190</v>
@@ -5768,19 +5768,19 @@
         <v>204838</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>178735</v>
+        <v>178844</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>230504</v>
+        <v>229696</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2693743671759237</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2350474407127634</v>
+        <v>0.2351901747249165</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3031262476953506</v>
+        <v>0.3020638787534218</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>312</v>
@@ -5789,19 +5789,19 @@
         <v>338965</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>309366</v>
+        <v>307649</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>373684</v>
+        <v>368568</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2671327281969813</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2438065203123252</v>
+        <v>0.2424531681768811</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2944943353802521</v>
+        <v>0.2904625052509897</v>
       </c>
     </row>
     <row r="30">
@@ -5818,19 +5818,19 @@
         <v>28881</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>19297</v>
+        <v>20225</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>40567</v>
+        <v>41228</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.0567988639620576</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03795074063743835</v>
+        <v>0.03977636627928648</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.07978164395513222</v>
+        <v>0.08108161543635309</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>52</v>
@@ -5839,19 +5839,19 @@
         <v>58494</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>45497</v>
+        <v>45007</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75511</v>
+        <v>76509</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.076923612283364</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05983157957441215</v>
+        <v>0.05918733536548339</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.09930167046531473</v>
+        <v>0.1006141522051973</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>79</v>
@@ -5860,19 +5860,19 @@
         <v>87375</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>69622</v>
+        <v>69196</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>108619</v>
+        <v>106015</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.06885914400837578</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05486786285218685</v>
+        <v>0.05453247350628798</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.08560089817732197</v>
+        <v>0.0835488922138117</v>
       </c>
     </row>
     <row r="31">
@@ -5889,19 +5889,19 @@
         <v>7345</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3124</v>
+        <v>3147</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>13805</v>
+        <v>14679</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01444573623718594</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006142965418767768</v>
+        <v>0.006189920560650454</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.02715043222514159</v>
+        <v>0.02886896124630901</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>15</v>
@@ -5910,19 +5910,19 @@
         <v>16149</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>10125</v>
+        <v>9856</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>27130</v>
+        <v>26710</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02123671548254686</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0133153544683309</v>
+        <v>0.01296069776044284</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03567727011069387</v>
+        <v>0.03512512439029979</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>22</v>
@@ -5931,19 +5931,19 @@
         <v>23494</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14669</v>
+        <v>14311</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>36112</v>
+        <v>34632</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01851540757817246</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0115605624802719</v>
+        <v>0.01127821658840118</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02845902029766236</v>
+        <v>0.02729325833810757</v>
       </c>
     </row>
     <row r="32">
@@ -5963,7 +5963,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6749</v>
+        <v>6765</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.003764074324812923</v>
@@ -5972,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01327378586909582</v>
+        <v>0.01330420232761943</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -5981,19 +5981,19 @@
         <v>5111</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2027</v>
+        <v>2022</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11674</v>
+        <v>11346</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.006721230868052737</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.002665236956982274</v>
+        <v>0.002659134316655548</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01535265148621074</v>
+        <v>0.0149213013242849</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>7</v>
@@ -6002,19 +6002,19 @@
         <v>7025</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2987</v>
+        <v>2997</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>14036</v>
+        <v>13972</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.00553622747092289</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002353683261845619</v>
+        <v>0.002361546384607437</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0110613279073395</v>
+        <v>0.01101094495117811</v>
       </c>
     </row>
     <row r="33">
@@ -6106,19 +6106,19 @@
         <v>211041</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>196410</v>
+        <v>197224</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>224035</v>
+        <v>223780</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.7907633802912104</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.7359447743589433</v>
+        <v>0.7389945213753294</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8394542500915189</v>
+        <v>0.8384997663394869</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>713</v>
@@ -6127,19 +6127,19 @@
         <v>756122</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>725195</v>
+        <v>721302</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>784354</v>
+        <v>787209</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6835004385995225</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6555431315137104</v>
+        <v>0.6520240572190414</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7090203077516354</v>
+        <v>0.7116016766472509</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>926</v>
@@ -6148,19 +6148,19 @@
         <v>967163</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>931394</v>
+        <v>931424</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>999851</v>
+        <v>998831</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.7043480620230167</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6782990489168581</v>
+        <v>0.6783206762338739</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7281536927511789</v>
+        <v>0.7274106485063891</v>
       </c>
     </row>
     <row r="35">
@@ -6177,19 +6177,19 @@
         <v>42945</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>32104</v>
+        <v>32049</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57271</v>
+        <v>56689</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1609133406197264</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1202914928242673</v>
+        <v>0.1200854629091595</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2145933294564657</v>
+        <v>0.2124104505326108</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>233</v>
@@ -6198,19 +6198,19 @@
         <v>247005</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>220853</v>
+        <v>218498</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>275145</v>
+        <v>276954</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2232815262046377</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.199640887581176</v>
+        <v>0.197512479492979</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2487184783289347</v>
+        <v>0.2503543155354463</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>273</v>
@@ -6219,19 +6219,19 @@
         <v>289950</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>259777</v>
+        <v>259594</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>321086</v>
+        <v>321610</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.2111596467728936</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1891854665671907</v>
+        <v>0.1890528154880658</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2338349685164063</v>
+        <v>0.2342162002840412</v>
       </c>
     </row>
     <row r="36">
@@ -6248,19 +6248,19 @@
         <v>11867</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6207</v>
+        <v>5991</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>20757</v>
+        <v>20936</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0444655170151347</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.02325689385888844</v>
+        <v>0.02244707422678397</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.07777473544840609</v>
+        <v>0.07844552611931502</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>69</v>
@@ -6269,19 +6269,19 @@
         <v>74986</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>58140</v>
+        <v>57825</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92855</v>
+        <v>93328</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.06778433450386283</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.05255594978991543</v>
+        <v>0.05227088358028405</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.0839370418302552</v>
+        <v>0.08436412367652493</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>80</v>
@@ -6290,19 +6290,19 @@
         <v>86853</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>70896</v>
+        <v>68883</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>108340</v>
+        <v>105058</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.06325208955496386</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.0516310221162107</v>
+        <v>0.0501649501149261</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.07890003277766781</v>
+        <v>0.07651009216188318</v>
       </c>
     </row>
     <row r="37">
@@ -6332,19 +6332,19 @@
         <v>20911</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>12644</v>
+        <v>13533</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>31638</v>
+        <v>31413</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.01890226328914783</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01142929375878214</v>
+        <v>0.01223325612769794</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.02859967008290826</v>
+        <v>0.0283960476605028</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>20</v>
@@ -6353,19 +6353,19 @@
         <v>20911</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>13473</v>
+        <v>13510</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>32509</v>
+        <v>31782</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.01522841973527081</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.009811620532666078</v>
+        <v>0.009838770564721499</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.02367528454358185</v>
+        <v>0.02314551975347217</v>
       </c>
     </row>
     <row r="38">
@@ -6385,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>5578</v>
+        <v>6868</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.003857762073928497</v>
@@ -6394,7 +6394,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0208990599925768</v>
+        <v>0.02573440249353977</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -6403,19 +6403,19 @@
         <v>7225</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>14442</v>
+        <v>14142</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.006531437402829156</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.002739634657103401</v>
+        <v>0.002736926376719684</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01305526887934532</v>
+        <v>0.01278403155998301</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -6424,19 +6424,19 @@
         <v>8255</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3948</v>
+        <v>3993</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>14733</v>
+        <v>16188</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.00601178191385493</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.002875126716432065</v>
+        <v>0.002907600869293715</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01072942146647891</v>
+        <v>0.01178946759975384</v>
       </c>
     </row>
     <row r="39">
@@ -6528,19 +6528,19 @@
         <v>2464208</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>2404856</v>
+        <v>2411582</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2517891</v>
+        <v>2518715</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.7218944602061531</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.7045073447328972</v>
+        <v>0.7064776097679177</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.7376211262802341</v>
+        <v>0.7378625885255282</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2202</v>
@@ -6549,19 +6549,19 @@
         <v>2370478</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>2309897</v>
+        <v>2318416</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2427119</v>
+        <v>2430268</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.6689023439487047</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.6518076138699993</v>
+        <v>0.6542116812292854</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.6848853759802066</v>
+        <v>0.685773919007414</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4529</v>
@@ -6570,19 +6570,19 @@
         <v>4834686</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>4747070</v>
+        <v>4753411</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4915333</v>
+        <v>4921237</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.6949021627144398</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.6823089508835027</v>
+        <v>0.6832203599373017</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.7064937966353717</v>
+        <v>0.707342380348148</v>
       </c>
     </row>
     <row r="41">
@@ -6599,19 +6599,19 @@
         <v>678244</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>626472</v>
+        <v>629149</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>729579</v>
+        <v>726672</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.198692804302767</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1835262613812822</v>
+        <v>0.1843103558645848</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.213731610882851</v>
+        <v>0.2128798604393903</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>771</v>
@@ -6620,19 +6620,19 @@
         <v>828326</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>775139</v>
+        <v>774600</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>878312</v>
+        <v>878513</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2337372541039525</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2187290863261363</v>
+        <v>0.2185768500247019</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.247842502696721</v>
+        <v>0.2478992789470054</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1392</v>
@@ -6641,19 +6641,19 @@
         <v>1506569</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1441796</v>
+        <v>1434764</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1581055</v>
+        <v>1575884</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2165431994421394</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2072332023578875</v>
+        <v>0.2062224147281089</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2272492173354085</v>
+        <v>0.2265060162160775</v>
       </c>
     </row>
     <row r="42">
@@ -6670,19 +6670,19 @@
         <v>212369</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>184656</v>
+        <v>185477</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>246233</v>
+        <v>246085</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.06221401618313917</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.05409536283176759</v>
+        <v>0.05433594864877468</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0721345539414366</v>
+        <v>0.0720910735578703</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>213</v>
@@ -6691,19 +6691,19 @@
         <v>236136</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>207599</v>
+        <v>207081</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>268503</v>
+        <v>268854</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.06663299242893891</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.0585804611906704</v>
+        <v>0.05843429941340481</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.07576632554870805</v>
+        <v>0.07586541511387968</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>406</v>
@@ -6712,19 +6712,19 @@
         <v>448506</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>407711</v>
+        <v>409928</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>490085</v>
+        <v>499888</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.06446488536632028</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.05860142070098197</v>
+        <v>0.05892001744361215</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.07044127232546686</v>
+        <v>0.07185023399358288</v>
       </c>
     </row>
     <row r="43">
@@ -6741,19 +6741,19 @@
         <v>42078</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>30549</v>
+        <v>31025</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>56116</v>
+        <v>56369</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01232682930676975</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.008949349677810588</v>
+        <v>0.009088788296052825</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01643925900069454</v>
+        <v>0.01651332505444953</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>72</v>
@@ -6762,19 +6762,19 @@
         <v>78754</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>61682</v>
+        <v>60091</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>97594</v>
+        <v>97578</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02222292300194302</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.0174053401388981</v>
+        <v>0.01695639218914861</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02753913305848137</v>
+        <v>0.02753450988557793</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>112</v>
@@ -6783,19 +6783,19 @@
         <v>120832</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>100452</v>
+        <v>100029</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>146918</v>
+        <v>145042</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.0173675471321961</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01443830164117722</v>
+        <v>0.01437747818047812</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02111690136214675</v>
+        <v>0.02084728877294966</v>
       </c>
     </row>
     <row r="44">
@@ -6812,19 +6812,19 @@
         <v>16630</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>9875</v>
+        <v>9683</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>27941</v>
+        <v>26328</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.004871890001170896</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.002892937138541252</v>
+        <v>0.002836623473707097</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.008185325744174318</v>
+        <v>0.00771282308065734</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>27</v>
@@ -6833,19 +6833,19 @@
         <v>30138</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>19744</v>
+        <v>20376</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>43598</v>
+        <v>42653</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.008504486516460807</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.005571292741365272</v>
+        <v>0.005749760081404442</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01230247132348034</v>
+        <v>0.01203578616178658</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>43</v>
@@ -6854,19 +6854,19 @@
         <v>46769</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>33177</v>
+        <v>33535</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>62389</v>
+        <v>63281</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.006722205344904399</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004768617414269664</v>
+        <v>0.004820045382945746</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008967321184480305</v>
+        <v>0.009095506865969258</v>
       </c>
     </row>
     <row r="45">
@@ -7200,19 +7200,19 @@
         <v>257510</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>236180</v>
+        <v>237026</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278846</v>
+        <v>277560</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6013400708696972</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5515292169530495</v>
+        <v>0.5535045248791348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6511651487920115</v>
+        <v>0.6481602538668363</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>193</v>
@@ -7221,19 +7221,19 @@
         <v>200082</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>179867</v>
+        <v>179687</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>217633</v>
+        <v>217974</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5780699523554932</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.519665453080753</v>
+        <v>0.5191461509600288</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6287771433739879</v>
+        <v>0.6297623791084248</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>432</v>
@@ -7242,19 +7242,19 @@
         <v>457592</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>429559</v>
+        <v>427324</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>486512</v>
+        <v>483893</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5909387125273783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.554736469290357</v>
+        <v>0.5518507044229554</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6282862021375943</v>
+        <v>0.6249034613573836</v>
       </c>
     </row>
     <row r="5">
@@ -7271,19 +7271,19 @@
         <v>130739</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110502</v>
+        <v>113230</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151936</v>
+        <v>153431</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3053035329712577</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2580455625870173</v>
+        <v>0.2644169785151136</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3548035082231216</v>
+        <v>0.3582929805663299</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -7292,19 +7292,19 @@
         <v>110656</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>93744</v>
+        <v>93985</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>127736</v>
+        <v>129211</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3197043268619452</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.270840765063882</v>
+        <v>0.2715372868637471</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3690490121957351</v>
+        <v>0.3733114191095341</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>225</v>
@@ -7313,19 +7313,19 @@
         <v>241396</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215142</v>
+        <v>215784</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>265300</v>
+        <v>269613</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3117404498085952</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2778364140550341</v>
+        <v>0.2786660485737679</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3426105068385086</v>
+        <v>0.3481804780673136</v>
       </c>
     </row>
     <row r="6">
@@ -7342,19 +7342,19 @@
         <v>32333</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>21780</v>
+        <v>22909</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>44387</v>
+        <v>47530</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07550479988902119</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05086140888534164</v>
+        <v>0.05349750087335596</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1036536837248546</v>
+        <v>0.1109914569220204</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -7363,19 +7363,19 @@
         <v>29299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>19120</v>
+        <v>19525</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>40959</v>
+        <v>41380</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08464938165619973</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05524146503121972</v>
+        <v>0.05641138047845105</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1183375332827623</v>
+        <v>0.119552500419773</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -7384,19 +7384,19 @@
         <v>61632</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>47884</v>
+        <v>46667</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>79348</v>
+        <v>79301</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.07959227678747365</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06183824442813998</v>
+        <v>0.06026679785991065</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1024709481680223</v>
+        <v>0.102409864645672</v>
       </c>
     </row>
     <row r="7">
@@ -7413,19 +7413,19 @@
         <v>7645</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3154</v>
+        <v>3280</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14820</v>
+        <v>15366</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01785159627002381</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007365296970735115</v>
+        <v>0.007660298569871333</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03460852193687624</v>
+        <v>0.03588327058190622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>5</v>
@@ -7434,19 +7434,19 @@
         <v>4925</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1848</v>
+        <v>1859</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10774</v>
+        <v>11737</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0142283249925062</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.005339065189813058</v>
+        <v>0.005370505530264417</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03112714062646796</v>
+        <v>0.03391103121578046</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -7455,19 +7455,19 @@
         <v>12569</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6852</v>
+        <v>7131</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>22593</v>
+        <v>21313</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01623205389829553</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008848209567095448</v>
+        <v>0.009208612588804885</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02917625609036922</v>
+        <v>0.02752404813609893</v>
       </c>
     </row>
     <row r="8">
@@ -7500,7 +7500,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5812</v>
+        <v>5824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.003348014133855731</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01679061059631125</v>
+        <v>0.01682530743973377</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6611</v>
+        <v>5522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00149650697825735</v>
@@ -7530,7 +7530,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.008536962262540181</v>
+        <v>0.007131379610887151</v>
       </c>
     </row>
     <row r="9">
@@ -7622,19 +7622,19 @@
         <v>228485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>207168</v>
+        <v>208801</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>246556</v>
+        <v>246746</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6079484759804272</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.551227300679982</v>
+        <v>0.5555738702334035</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6560297503613884</v>
+        <v>0.6565363142249772</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>192</v>
@@ -7643,19 +7643,19 @@
         <v>204059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>182593</v>
+        <v>186150</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>221918</v>
+        <v>226609</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5496877005483124</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4918612189453996</v>
+        <v>0.5014440279540517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.597793323863546</v>
+        <v>0.6104303828229291</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>407</v>
@@ -7664,19 +7664,19 @@
         <v>432545</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>408451</v>
+        <v>402830</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>459587</v>
+        <v>461841</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5789975502548886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5467464838116595</v>
+        <v>0.5392222974815055</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6151958991692231</v>
+        <v>0.6182127862406989</v>
       </c>
     </row>
     <row r="11">
@@ -7693,19 +7693,19 @@
         <v>119045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>102645</v>
+        <v>101766</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>138002</v>
+        <v>138749</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3167527844687398</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.273115741626872</v>
+        <v>0.2707762589927106</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3671914565096842</v>
+        <v>0.3691812876613619</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>127</v>
@@ -7714,19 +7714,19 @@
         <v>132381</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115412</v>
+        <v>112616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>152615</v>
+        <v>150255</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3566020736113462</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3108930258840737</v>
+        <v>0.3033595489772422</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4111080181248949</v>
+        <v>0.4047519161681953</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>239</v>
@@ -7735,19 +7735,19 @@
         <v>251426</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>225867</v>
+        <v>225367</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>277576</v>
+        <v>280877</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3365546803691362</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3023421456442058</v>
+        <v>0.3016725694300776</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3715584288643659</v>
+        <v>0.3759773001233087</v>
       </c>
     </row>
     <row r="12">
@@ -7764,19 +7764,19 @@
         <v>23171</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14357</v>
+        <v>14236</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>34280</v>
+        <v>33248</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.06165292474646328</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03820074165081659</v>
+        <v>0.03787924895670116</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09121064206635296</v>
+        <v>0.08846568468457731</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -7785,19 +7785,19 @@
         <v>28461</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>19786</v>
+        <v>18648</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>40984</v>
+        <v>40197</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.07666729926114213</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05329993167916815</v>
+        <v>0.05023409523082022</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1104018638745819</v>
+        <v>0.1082811870805863</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>47</v>
@@ -7806,19 +7806,19 @@
         <v>51632</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>38245</v>
+        <v>37556</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>65795</v>
+        <v>68137</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.06911386288478882</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05119387353588558</v>
+        <v>0.05027184497910865</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08807159084709711</v>
+        <v>0.09120653965713385</v>
       </c>
     </row>
     <row r="13">
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6096</v>
+        <v>6972</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005262384309073222</v>
@@ -7847,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01621973890595561</v>
+        <v>0.01855070301047795</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -7856,19 +7856,19 @@
         <v>6327</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2311</v>
+        <v>2532</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13035</v>
+        <v>13266</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01704292657919926</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006226204272144337</v>
+        <v>0.00681959432849957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03511287653305624</v>
+        <v>0.03573508598258071</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>8</v>
@@ -7877,19 +7877,19 @@
         <v>8305</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4058</v>
+        <v>3826</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>16128</v>
+        <v>16155</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01111636757207294</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.005431596989261465</v>
+        <v>0.005121263957586764</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02158851789068883</v>
+        <v>0.02162515593789939</v>
       </c>
     </row>
     <row r="14">
@@ -7906,19 +7906,19 @@
         <v>3151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8179</v>
+        <v>8955</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008383430495296483</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002562327386802113</v>
+        <v>0.002542371506138905</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02176258319174222</v>
+        <v>0.02382669821357539</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -7940,19 +7940,19 @@
         <v>3151</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>968</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8579</v>
+        <v>9247</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004217538919113374</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0</v>
+        <v>0.001295380077402748</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01148369942933225</v>
+        <v>0.01237804156401115</v>
       </c>
     </row>
     <row r="15">
@@ -8044,19 +8044,19 @@
         <v>297826</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>270603</v>
+        <v>274687</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>319906</v>
+        <v>320855</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5706420158091379</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5184824917705144</v>
+        <v>0.5263074186954838</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6129478962291234</v>
+        <v>0.6147668570383098</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>88</v>
@@ -8065,19 +8065,19 @@
         <v>92955</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>78718</v>
+        <v>80138</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105213</v>
+        <v>106133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5648054001713673</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4783040471941272</v>
+        <v>0.4869313108233582</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6392897758022786</v>
+        <v>0.6448788854404491</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>371</v>
@@ -8086,19 +8086,19 @@
         <v>390781</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>367724</v>
+        <v>364415</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>417179</v>
+        <v>415989</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.569242755662024</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5356571566189515</v>
+        <v>0.5308369597511973</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6076971728073086</v>
+        <v>0.6059634243187835</v>
       </c>
     </row>
     <row r="17">
@@ -8115,19 +8115,19 @@
         <v>174188</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153989</v>
+        <v>152813</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>198219</v>
+        <v>196630</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3337484246337201</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2950474032832573</v>
+        <v>0.2927938315066986</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3797928951201833</v>
+        <v>0.3767483644414258</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -8136,19 +8136,19 @@
         <v>42359</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31670</v>
+        <v>31758</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>55970</v>
+        <v>54003</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.257381584592295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1924289024872417</v>
+        <v>0.1929673962567673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3400828087870045</v>
+        <v>0.3281271788715153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>209</v>
@@ -8157,19 +8157,19 @@
         <v>216547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190170</v>
+        <v>193137</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>239249</v>
+        <v>241610</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3154403703668809</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.277017647187028</v>
+        <v>0.2813383445209109</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3485095884084603</v>
+        <v>0.3519494045296928</v>
       </c>
     </row>
     <row r="18">
@@ -8186,19 +8186,19 @@
         <v>41427</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>28973</v>
+        <v>29506</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>55412</v>
+        <v>55276</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0793748230121526</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05551389113373787</v>
+        <v>0.05653407946254378</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1061699000584674</v>
+        <v>0.1059100476309465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>20</v>
@@ -8207,19 +8207,19 @@
         <v>22510</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>14655</v>
+        <v>14419</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>32923</v>
+        <v>33482</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1367727295732752</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08904353064869842</v>
+        <v>0.08761185712537418</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2000461988226335</v>
+        <v>0.2034426663554881</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>60</v>
@@ -8228,19 +8228,19 @@
         <v>63937</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>49482</v>
+        <v>49418</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>80973</v>
+        <v>80206</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09313529794543471</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07207940668136957</v>
+        <v>0.07198672200826857</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1179516220117468</v>
+        <v>0.1168342181525119</v>
       </c>
     </row>
     <row r="19">
@@ -8257,19 +8257,19 @@
         <v>4772</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1304</v>
+        <v>1699</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>11983</v>
+        <v>13498</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009144168661210128</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002497913419474906</v>
+        <v>0.003254892436909649</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02295962480723567</v>
+        <v>0.02586305133649021</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -8278,19 +8278,19 @@
         <v>5650</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2263</v>
+        <v>2019</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>12473</v>
+        <v>12423</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03433249460059189</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01374863459154138</v>
+        <v>0.01227005617110175</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07578863464478171</v>
+        <v>0.07548567002161588</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>9</v>
@@ -8299,19 +8299,19 @@
         <v>10423</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4941</v>
+        <v>4633</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>18577</v>
+        <v>18909</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01518277439556923</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007196972293878213</v>
+        <v>0.006748299205476504</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02706032684112184</v>
+        <v>0.02754381370579588</v>
       </c>
     </row>
     <row r="20">
@@ -8328,19 +8328,19 @@
         <v>3701</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>9037</v>
+        <v>9354</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007090567883779382</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.001792455792677119</v>
+        <v>0.001784255869057788</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01731450405122072</v>
+        <v>0.01792270145775775</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -8352,7 +8352,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>5978</v>
+        <v>5960</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006707791062470645</v>
@@ -8361,7 +8361,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03632068960891294</v>
+        <v>0.03621561351580631</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -8370,19 +8370,19 @@
         <v>4805</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1850</v>
+        <v>1800</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>11058</v>
+        <v>10450</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.00699880163009117</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.002695091748289465</v>
+        <v>0.00262246526490148</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01610749046999734</v>
+        <v>0.0152223605005223</v>
       </c>
     </row>
     <row r="21">
@@ -8474,19 +8474,19 @@
         <v>626045</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>592258</v>
+        <v>590591</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>659932</v>
+        <v>662598</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5450543063528747</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5156382298267521</v>
+        <v>0.5141869322128659</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5745569585142339</v>
+        <v>0.5768784228203345</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>428</v>
@@ -8495,19 +8495,19 @@
         <v>440942</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>413894</v>
+        <v>412035</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>469890</v>
+        <v>471828</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5339088068927774</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5011575151274594</v>
+        <v>0.498906523882989</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5689589459696365</v>
+        <v>0.5713064011010944</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1031</v>
@@ -8516,19 +8516,19 @@
         <v>1066987</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1021965</v>
+        <v>1019218</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1113812</v>
+        <v>1109160</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5403923921010022</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5175898673662549</v>
+        <v>0.5161985622275865</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5641074633342898</v>
+        <v>0.5617511055699648</v>
       </c>
     </row>
     <row r="23">
@@ -8545,19 +8545,19 @@
         <v>377506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>347023</v>
+        <v>341771</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>411199</v>
+        <v>406528</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3286686544772704</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3021290070080797</v>
+        <v>0.2975560787692397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3580027110374271</v>
+        <v>0.3539356629401328</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>265</v>
@@ -8566,19 +8566,19 @@
         <v>274151</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>250134</v>
+        <v>249960</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>304246</v>
+        <v>302664</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3319523073720589</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.302871615896957</v>
+        <v>0.302660126200144</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3683913162608442</v>
+        <v>0.3664765443791104</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>627</v>
@@ -8587,19 +8587,19 @@
         <v>651658</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>609393</v>
+        <v>609568</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>695717</v>
+        <v>698082</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.330042133367402</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3086364824411725</v>
+        <v>0.3087251203407693</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3523567449447871</v>
+        <v>0.353554317858151</v>
       </c>
     </row>
     <row r="24">
@@ -8616,19 +8616,19 @@
         <v>122616</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>102381</v>
+        <v>101854</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>145991</v>
+        <v>144835</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1067532640293539</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08913574317271301</v>
+        <v>0.08867767900736674</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1271042732820031</v>
+        <v>0.1260976265609524</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>81</v>
@@ -8637,19 +8637,19 @@
         <v>85201</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>69092</v>
+        <v>68088</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>104914</v>
+        <v>102193</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1031642006379694</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.083658933947724</v>
+        <v>0.0824432314369328</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1270336661378637</v>
+        <v>0.1237384851136125</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>195</v>
@@ -8658,19 +8658,19 @@
         <v>207817</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>180724</v>
+        <v>183557</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>236166</v>
+        <v>242311</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.105252038728947</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09153049849202879</v>
+        <v>0.09296541501116116</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1196099208962618</v>
+        <v>0.1227219755494331</v>
       </c>
     </row>
     <row r="25">
@@ -8687,19 +8687,19 @@
         <v>14155</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>7867</v>
+        <v>7844</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>23418</v>
+        <v>22325</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01232356902389413</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006849513879392588</v>
+        <v>0.006829246010700638</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02038804387764762</v>
+        <v>0.01943699273837701</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>17</v>
@@ -8708,19 +8708,19 @@
         <v>18356</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>11183</v>
+        <v>10866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>30458</v>
+        <v>29274</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02222613513115717</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01354110677765212</v>
+        <v>0.01315637313123566</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.03687918085815679</v>
+        <v>0.03544619465499675</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>32</v>
@@ -8729,19 +8729,19 @@
         <v>32511</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>22822</v>
+        <v>22419</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>45672</v>
+        <v>45384</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01646559193016556</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01155847191455143</v>
+        <v>0.01135440070696386</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0231313769173693</v>
+        <v>0.02298524838077795</v>
       </c>
     </row>
     <row r="26">
@@ -8758,19 +8758,19 @@
         <v>8270</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3959</v>
+        <v>3859</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16116</v>
+        <v>15450</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.007200206116606873</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003446905846913817</v>
+        <v>0.003359534871825645</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01403100632563999</v>
+        <v>0.01345105219188733</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -8779,19 +8779,19 @@
         <v>7225</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3123</v>
+        <v>3086</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15546</v>
+        <v>14516</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008748549966037057</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003781741822498165</v>
+        <v>0.003736603843932618</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01882314987493567</v>
+        <v>0.017576551394613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -8800,19 +8800,19 @@
         <v>15495</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>8651</v>
+        <v>9486</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>24754</v>
+        <v>27258</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.00784784387248315</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004381588358403938</v>
+        <v>0.004804270161788807</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01253697163156845</v>
+        <v>0.0138051153193902</v>
       </c>
     </row>
     <row r="27">
@@ -8904,19 +8904,19 @@
         <v>342799</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>316324</v>
+        <v>317678</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>366782</v>
+        <v>367772</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5532170760143228</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5104910625208202</v>
+        <v>0.5126763358297379</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5919214967939337</v>
+        <v>0.5935185955382339</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>355</v>
@@ -8925,19 +8925,19 @@
         <v>374990</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>346422</v>
+        <v>346564</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>401554</v>
+        <v>401333</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5085579560072421</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4698135862490439</v>
+        <v>0.4700064071819105</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5445828105920018</v>
+        <v>0.5442839189731355</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>680</v>
@@ -8946,19 +8946,19 @@
         <v>717790</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>680455</v>
+        <v>680499</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>757413</v>
+        <v>757292</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5289505591604332</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.50143794098912</v>
+        <v>0.5014701602629746</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5581500087717286</v>
+        <v>0.5580607798037955</v>
       </c>
     </row>
     <row r="29">
@@ -8975,19 +8975,19 @@
         <v>201802</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>178972</v>
+        <v>178957</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>227727</v>
+        <v>225903</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3256725491411263</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2888291008245238</v>
+        <v>0.2888053999556227</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3675102764151154</v>
+        <v>0.3645670846448406</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>238</v>
@@ -8996,19 +8996,19 @@
         <v>251700</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>224869</v>
+        <v>225030</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>278855</v>
+        <v>276712</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3413529778824285</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.304965366142025</v>
+        <v>0.305183771773842</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3781806622544013</v>
+        <v>0.3752741725447983</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>435</v>
@@ -9017,19 +9017,19 @@
         <v>453502</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>418170</v>
+        <v>418959</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>489296</v>
+        <v>486995</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3341928555929035</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3081558402211599</v>
+        <v>0.3087377132086647</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3605702368456647</v>
+        <v>0.3588747073734839</v>
       </c>
     </row>
     <row r="30">
@@ -9046,19 +9046,19 @@
         <v>58421</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>46133</v>
+        <v>45907</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>72956</v>
+        <v>75184</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09428095234655672</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07444999303380015</v>
+        <v>0.07408497038606002</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1177380282784114</v>
+        <v>0.1213343339386892</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>80</v>
@@ -9067,19 +9067,19 @@
         <v>84460</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>68165</v>
+        <v>67733</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>102688</v>
+        <v>103282</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1145435271995118</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.0924447186028997</v>
+        <v>0.09185915288089454</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1392643378092536</v>
+        <v>0.1400701940718224</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>139</v>
@@ -9088,19 +9088,19 @@
         <v>142881</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122742</v>
+        <v>120894</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>169410</v>
+        <v>167359</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1052910688489525</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09045078371947429</v>
+        <v>0.08908879002148463</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1248411418201755</v>
+        <v>0.1233298511676732</v>
       </c>
     </row>
     <row r="31">
@@ -9117,19 +9117,19 @@
         <v>15694</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>8645</v>
+        <v>8929</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>25206</v>
+        <v>26210</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02532790001617908</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01395220962812831</v>
+        <v>0.01441020501973926</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.04067802396545751</v>
+        <v>0.04229812658302911</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -9138,19 +9138,19 @@
         <v>19278</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12032</v>
+        <v>11540</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29652</v>
+        <v>28791</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.02614416885408056</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.01631777674773021</v>
+        <v>0.01565084584722704</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0402134556767327</v>
+        <v>0.03904569286459281</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>32</v>
@@ -9159,19 +9159,19 @@
         <v>34972</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>23983</v>
+        <v>23935</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48603</v>
+        <v>48686</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02577143767453645</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.01767316403964478</v>
+        <v>0.01763807383032046</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0358165570939467</v>
+        <v>0.03587764659254462</v>
       </c>
     </row>
     <row r="32">
@@ -9191,7 +9191,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>4679</v>
+        <v>5445</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.001501522481815155</v>
@@ -9200,7 +9200,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.007551868932667617</v>
+        <v>0.008787616229934805</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>7</v>
@@ -9209,19 +9209,19 @@
         <v>6932</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2957</v>
+        <v>3001</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>14139</v>
+        <v>14385</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.009401370056737109</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004010036617091883</v>
+        <v>0.004069600734763828</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01917531796126433</v>
+        <v>0.01950911220157419</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -9230,19 +9230,19 @@
         <v>7863</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3822</v>
+        <v>3754</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15084</v>
+        <v>14847</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.005794078723174318</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.002816392074530473</v>
+        <v>0.00276607336359365</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01111577342671716</v>
+        <v>0.01094129305297568</v>
       </c>
     </row>
     <row r="33">
@@ -9334,19 +9334,19 @@
         <v>181951</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>164793</v>
+        <v>164121</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>197798</v>
+        <v>196621</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6336561529740107</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5739021151586873</v>
+        <v>0.5715627702784041</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.688842949724679</v>
+        <v>0.6847449724425645</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>522</v>
@@ -9355,19 +9355,19 @@
         <v>561407</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>526490</v>
+        <v>528828</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>592485</v>
+        <v>596939</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5199060959750292</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4875704812608564</v>
+        <v>0.4897355261092977</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5486865790297479</v>
+        <v>0.5528115420602948</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>694</v>
@@ -9376,19 +9376,19 @@
         <v>743359</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>704909</v>
+        <v>706472</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>783777</v>
+        <v>780734</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5438003903299394</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5156726103184692</v>
+        <v>0.5168162023331759</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5733679930611615</v>
+        <v>0.5711423605259727</v>
       </c>
     </row>
     <row r="35">
@@ -9405,19 +9405,19 @@
         <v>90923</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>76043</v>
+        <v>77001</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>108714</v>
+        <v>107965</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3166462098804013</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.264822665132197</v>
+        <v>0.2681622891250325</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3786014627511299</v>
+        <v>0.3759933860281743</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>332</v>
@@ -9426,19 +9426,19 @@
         <v>364080</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>332598</v>
+        <v>329608</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>396796</v>
+        <v>394574</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3371656111895331</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3080112099659935</v>
+        <v>0.3052419769185015</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3674637488933154</v>
+        <v>0.3654053956487282</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>418</v>
@@ -9447,19 +9447,19 @@
         <v>455003</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>418982</v>
+        <v>419925</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>492314</v>
+        <v>492054</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.332855313438462</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.3065042374265137</v>
+        <v>0.3071943364014991</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3601498677560177</v>
+        <v>0.3599597022619677</v>
       </c>
     </row>
     <row r="36">
@@ -9476,19 +9476,19 @@
         <v>11905</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>6007</v>
+        <v>6601</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>19714</v>
+        <v>19919</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04146010973398617</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0209199981955499</v>
+        <v>0.0229871697687772</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.06865474355634883</v>
+        <v>0.06936942777915703</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>106</v>
@@ -9497,19 +9497,19 @@
         <v>119540</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>99446</v>
+        <v>101495</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>141405</v>
+        <v>142617</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.110703337314372</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09209495807147765</v>
+        <v>0.09399207739913111</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1309520067752418</v>
+        <v>0.1320743927424908</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>118</v>
@@ -9518,19 +9518,19 @@
         <v>131445</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>110698</v>
+        <v>111137</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>158208</v>
+        <v>155835</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09615813087192961</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08098035177391218</v>
+        <v>0.08130198111113848</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1157359451829931</v>
+        <v>0.1140000468886253</v>
       </c>
     </row>
     <row r="37">
@@ -9550,7 +9550,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>5480</v>
+        <v>5432</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.003789013932806201</v>
@@ -9559,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.01908453673741951</v>
+        <v>0.01891824235761289</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>23</v>
@@ -9568,19 +9568,19 @@
         <v>26924</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>16895</v>
+        <v>17033</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39318</v>
+        <v>38685</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.02493366315129219</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01564587718464592</v>
+        <v>0.01577402076611916</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.03641146463257114</v>
+        <v>0.03582571150297505</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>24</v>
@@ -9589,19 +9589,19 @@
         <v>28012</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18194</v>
+        <v>18153</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>42414</v>
+        <v>40474</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.02049202605864133</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.01330980030594971</v>
+        <v>0.01327983570018317</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.03102772639498838</v>
+        <v>0.02960861905376327</v>
       </c>
     </row>
     <row r="38">
@@ -9621,7 +9621,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>7629</v>
+        <v>5388</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.004448513478795746</v>
@@ -9630,7 +9630,7 @@
         <v>0</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.02656825534076105</v>
+        <v>0.01876464695208985</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>7</v>
@@ -9639,19 +9639,19 @@
         <v>7873</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>3328</v>
+        <v>3297</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15354</v>
+        <v>15268</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.007291292369773376</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.003081937877069329</v>
+        <v>0.003053606805579499</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01421941730427782</v>
+        <v>0.01413943438323905</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>8</v>
@@ -9660,19 +9660,19 @@
         <v>9151</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>4275</v>
+        <v>4005</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>17148</v>
+        <v>17158</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.006694139301027636</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.003127272487982516</v>
+        <v>0.002929642554974821</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01254489520895536</v>
+        <v>0.01255182139976183</v>
       </c>
     </row>
     <row r="39">
@@ -9764,19 +9764,19 @@
         <v>1934617</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1875399</v>
+        <v>1877609</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>1991668</v>
+        <v>1995561</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.5721425025429363</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5546293670866449</v>
+        <v>0.5552830919152182</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.5890146553027444</v>
+        <v>0.5901661437880061</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1778</v>
@@ -9785,19 +9785,19 @@
         <v>1874436</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1813989</v>
+        <v>1813982</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>1933705</v>
+        <v>1945919</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.5317568527275612</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5146087840180621</v>
+        <v>0.5146066819276109</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5485707412586501</v>
+        <v>0.552035698383157</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3615</v>
@@ -9806,19 +9806,19 @@
         <v>3809053</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3719281</v>
+        <v>3723254</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>3891886</v>
+        <v>3895610</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.5515297258513432</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5385312130576967</v>
+        <v>0.5391065835102565</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5635234517227309</v>
+        <v>0.5640626930175887</v>
       </c>
     </row>
     <row r="41">
@@ -9835,19 +9835,19 @@
         <v>1094204</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1040564</v>
+        <v>1034977</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1149626</v>
+        <v>1145029</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3235992568454654</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3077358819551293</v>
+        <v>0.3060833890394327</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3399896331588044</v>
+        <v>0.338630123415281</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1105</v>
@@ -9856,19 +9856,19 @@
         <v>1175327</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1118397</v>
+        <v>1116136</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1233566</v>
+        <v>1235720</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3334274329080564</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.3172770117192462</v>
+        <v>0.3166354098164812</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3499490558707356</v>
+        <v>0.3505601355418499</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2153</v>
@@ -9877,19 +9877,19 @@
         <v>2269531</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2185910</v>
+        <v>2185874</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2351665</v>
+        <v>2347487</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.3286155435559673</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.3165076495680358</v>
+        <v>0.3165024135519226</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3405079787488436</v>
+        <v>0.3399031458257664</v>
       </c>
     </row>
     <row r="42">
@@ -9906,19 +9906,19 @@
         <v>289873</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>256078</v>
+        <v>256030</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>326414</v>
+        <v>321843</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08572686234605294</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07573229225238765</v>
+        <v>0.07571826236585896</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09653347849645899</v>
+        <v>0.09518160229339705</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>340</v>
@@ -9927,19 +9927,19 @@
         <v>369471</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>333180</v>
+        <v>333586</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>407937</v>
+        <v>409931</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1048147299917236</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09451943494588987</v>
+        <v>0.09463456556040169</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1157273255806334</v>
+        <v>0.1162928757812042</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>615</v>
@@ -9948,19 +9948,19 @@
         <v>659344</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>613026</v>
+        <v>609664</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>715123</v>
+        <v>709697</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.09546928211885809</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.088762757034102</v>
+        <v>0.08827593812044217</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1035459009528615</v>
+        <v>0.1027601792850724</v>
       </c>
     </row>
     <row r="43">
@@ -9977,19 +9977,19 @@
         <v>45332</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>33383</v>
+        <v>33648</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>61094</v>
+        <v>62364</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.01340642382823694</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.009872659150751922</v>
+        <v>0.009951043495443132</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.01806779236187323</v>
+        <v>0.01844359062119104</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>74</v>
@@ -9998,19 +9998,19 @@
         <v>81460</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>64370</v>
+        <v>63936</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>101328</v>
+        <v>101316</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.02310918611668995</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.01826098294949439</v>
+        <v>0.01813799233586724</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.02874568045699357</v>
+        <v>0.02874227091520928</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>117</v>
@@ -10019,19 +10019,19 @@
         <v>126791</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>104925</v>
+        <v>106250</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>150271</v>
+        <v>152502</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.01835869953155746</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.01519251871562082</v>
+        <v>0.0153843423724022</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.02175834116054533</v>
+        <v>0.02208142320947947</v>
       </c>
     </row>
     <row r="44">
@@ -10048,19 +10048,19 @@
         <v>17329</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10731</v>
+        <v>10609</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>26857</v>
+        <v>26669</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.005124954437308394</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.003173635841415774</v>
+        <v>0.003137499404827015</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.007942798087102021</v>
+        <v>0.007886990541235138</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>23</v>
@@ -10069,19 +10069,19 @@
         <v>24293</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>15408</v>
+        <v>15805</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>35301</v>
+        <v>35571</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.006891798255968813</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.004371109966398341</v>
+        <v>0.004483619893510482</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01001440467985556</v>
+        <v>0.01009111630664192</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>40</v>
@@ -10090,19 +10090,19 @@
         <v>41623</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>29255</v>
+        <v>30312</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>56370</v>
+        <v>55614</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.00602674894227396</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.004235922843189455</v>
+        <v>0.004389047624331661</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.008162041574956536</v>
+        <v>0.008052627376369772</v>
       </c>
     </row>
     <row r="45">
@@ -10436,19 +10436,19 @@
         <v>363712</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>341205</v>
+        <v>340538</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>386098</v>
+        <v>386452</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.663891453189579</v>
+        <v>0.6638914531895791</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6228089036974614</v>
+        <v>0.6215924726388912</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7047540126712639</v>
+        <v>0.7053992375478335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>473</v>
@@ -10457,19 +10457,19 @@
         <v>342150</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>324816</v>
+        <v>324903</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>360016</v>
+        <v>361164</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7015508162338532</v>
+        <v>0.7015508162338531</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.666010103895614</v>
+        <v>0.6661874314100903</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.738184448106816</v>
+        <v>0.7405378009442182</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>827</v>
@@ -10478,19 +10478,19 @@
         <v>705861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>676152</v>
+        <v>675878</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>733456</v>
+        <v>734656</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6816275329823032</v>
+        <v>0.6816275329823031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.652938569828066</v>
+        <v>0.6526734298965692</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.708275097291411</v>
+        <v>0.7094339757449645</v>
       </c>
     </row>
     <row r="5">
@@ -10507,19 +10507,19 @@
         <v>143774</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>122535</v>
+        <v>125015</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>163849</v>
+        <v>166064</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2624336108886534</v>
+        <v>0.2624336108886535</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2236662330014336</v>
+        <v>0.2281924419215089</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2990769993823155</v>
+        <v>0.3031208201264972</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>166</v>
@@ -10528,19 +10528,19 @@
         <v>113548</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>97964</v>
+        <v>96976</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131081</v>
+        <v>130071</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.2328218390309569</v>
+        <v>0.2328218390309568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2008673218378081</v>
+        <v>0.198841331869311</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2687711876570633</v>
+        <v>0.2667000995168189</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>321</v>
@@ -10549,19 +10549,19 @@
         <v>257322</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>229426</v>
+        <v>231324</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>284611</v>
+        <v>284556</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2484876302342647</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2215493774267702</v>
+        <v>0.2233822997591176</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2748397124910285</v>
+        <v>0.2747861375106321</v>
       </c>
     </row>
     <row r="6">
@@ -10578,19 +10578,19 @@
         <v>26595</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18170</v>
+        <v>17698</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>39544</v>
+        <v>39623</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.04854485535547717</v>
+        <v>0.04854485535547719</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.0331656056607065</v>
+        <v>0.03230440062341064</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07218055965498524</v>
+        <v>0.07232547012375752</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>28</v>
@@ -10599,19 +10599,19 @@
         <v>20524</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13761</v>
+        <v>13501</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>31030</v>
+        <v>32145</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.04208293000749327</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02821571029133794</v>
+        <v>0.02768177361914085</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06362488727940675</v>
+        <v>0.06591139201931126</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>55</v>
@@ -10620,19 +10620,19 @@
         <v>47119</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>34871</v>
+        <v>35644</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>61423</v>
+        <v>62121</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.04550154250252931</v>
+        <v>0.04550154250252932</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.03367421841407143</v>
+        <v>0.03442063773350955</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.05931373399743075</v>
+        <v>0.05998870899490465</v>
       </c>
     </row>
     <row r="7">
@@ -10649,19 +10649,19 @@
         <v>9022</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4380</v>
+        <v>4490</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17169</v>
+        <v>17016</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01646848802982336</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007994131357545241</v>
+        <v>0.00819515488561162</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03133887822645779</v>
+        <v>0.03106024647497595</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -10670,19 +10670,19 @@
         <v>8475</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4400</v>
+        <v>4542</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>13817</v>
+        <v>13900</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01737746382186203</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009021200793643479</v>
+        <v>0.009312040371176056</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02833116528820247</v>
+        <v>0.02850179257696002</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>22</v>
@@ -10691,19 +10691,19 @@
         <v>17497</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>10872</v>
+        <v>10796</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>26265</v>
+        <v>26370</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.01689657990058334</v>
+        <v>0.01689657990058333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01049827269898294</v>
+        <v>0.01042492558802367</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02536302735319347</v>
+        <v>0.02546420745430885</v>
       </c>
     </row>
     <row r="8">
@@ -10720,19 +10720,19 @@
         <v>4745</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1770</v>
+        <v>1637</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11734</v>
+        <v>11020</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.008661592536466945</v>
+        <v>0.008661592536466946</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003231729575509776</v>
+        <v>0.002988543298615558</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0214187565403991</v>
+        <v>0.02011477886036965</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -10741,19 +10741,19 @@
         <v>3008</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>906</v>
+        <v>1105</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7142</v>
+        <v>7037</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.006166950905834722</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001858084531155681</v>
+        <v>0.002266594396381468</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01464351992633916</v>
+        <v>0.01442934342231044</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>10</v>
@@ -10762,19 +10762,19 @@
         <v>7753</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3834</v>
+        <v>3776</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>14670</v>
+        <v>15490</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.007486714380319488</v>
+        <v>0.007486714380319487</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.003702446231287331</v>
+        <v>0.003645894989726387</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01416680136580311</v>
+        <v>0.01495788101643231</v>
       </c>
     </row>
     <row r="9">
@@ -10866,19 +10866,19 @@
         <v>281281</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>259816</v>
+        <v>258081</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>304384</v>
+        <v>302799</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5839611688807381</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5393969247968203</v>
+        <v>0.5357948874489077</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6319248844347946</v>
+        <v>0.628632891835331</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>363</v>
@@ -10887,19 +10887,19 @@
         <v>261641</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>245090</v>
+        <v>243895</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>279032</v>
+        <v>278582</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6217375759311786</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5824069651952041</v>
+        <v>0.5795674081427212</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.663065355401477</v>
+        <v>0.6619952000011344</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>631</v>
@@ -10908,19 +10908,19 @@
         <v>542923</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513443</v>
+        <v>514744</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>570252</v>
+        <v>568493</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6015757369283303</v>
+        <v>0.6015757369283301</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5689117611717025</v>
+        <v>0.5703527116617707</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.631857160924486</v>
+        <v>0.629908412488848</v>
       </c>
     </row>
     <row r="11">
@@ -10937,19 +10937,19 @@
         <v>146095</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>126279</v>
+        <v>125861</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>167168</v>
+        <v>169100</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3033038720649128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2621656191241453</v>
+        <v>0.2612973632961562</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3470528781708635</v>
+        <v>0.3510639091827049</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>174</v>
@@ -10958,19 +10958,19 @@
         <v>124879</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>108733</v>
+        <v>108816</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>142184</v>
+        <v>140846</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2967504276535041</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2583828640364934</v>
+        <v>0.2585794720301569</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3378723890569223</v>
+        <v>0.3346916702107853</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>329</v>
@@ -10979,19 +10979,19 @@
         <v>270974</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>247346</v>
+        <v>244433</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>299312</v>
+        <v>295755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3002480999165257</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2740667677135063</v>
+        <v>0.2708394433709345</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3316468790917937</v>
+        <v>0.3277054727658648</v>
       </c>
     </row>
     <row r="12">
@@ -11008,19 +11008,19 @@
         <v>44877</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>32106</v>
+        <v>33291</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>58716</v>
+        <v>59638</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09316756968470859</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06665411117305511</v>
+        <v>0.06911536836968092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1218991073176391</v>
+        <v>0.1238132765423819</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>30</v>
@@ -11029,19 +11029,19 @@
         <v>20841</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14157</v>
+        <v>14321</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>29214</v>
+        <v>29370</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04952404561639476</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03364073373232775</v>
+        <v>0.03403177378124188</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.06942186233641821</v>
+        <v>0.06979229727423641</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>74</v>
@@ -11050,19 +11050,19 @@
         <v>65718</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>52664</v>
+        <v>51931</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>83998</v>
+        <v>81561</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07281725358631538</v>
+        <v>0.07281725358631537</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05835308587057298</v>
+        <v>0.05754171775117837</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09307205917487467</v>
+        <v>0.09037212377564653</v>
       </c>
     </row>
     <row r="13">
@@ -11079,19 +11079,19 @@
         <v>8825</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4493</v>
+        <v>4743</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15292</v>
+        <v>15427</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01832205043691989</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009327521225680908</v>
+        <v>0.009846459797803665</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03174821529383905</v>
+        <v>0.03202733366965674</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -11100,19 +11100,19 @@
         <v>7380</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3999</v>
+        <v>3992</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13449</v>
+        <v>13728</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01753788663304761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.009503698988162914</v>
+        <v>0.009486885420221504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03195867536000463</v>
+        <v>0.03262086450168945</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>22</v>
@@ -11121,19 +11121,19 @@
         <v>16206</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10260</v>
+        <v>10328</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>24560</v>
+        <v>24519</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01795640669887663</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01136881777921164</v>
+        <v>0.01144323323882882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02721368934778452</v>
+        <v>0.02716799295701567</v>
       </c>
     </row>
     <row r="14">
@@ -11153,7 +11153,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3286</v>
+        <v>3056</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001245338932720541</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.006822133465509373</v>
+        <v>0.006344475588946475</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -11171,19 +11171,19 @@
         <v>6081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2823</v>
+        <v>2843</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10941</v>
+        <v>11146</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01445006416587474</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006707313869330127</v>
+        <v>0.006756582330803501</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02599793768647436</v>
+        <v>0.02648529197698445</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>10</v>
@@ -11192,19 +11192,19 @@
         <v>6681</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3169</v>
+        <v>3410</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12064</v>
+        <v>12599</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.007402502869952045</v>
+        <v>0.007402502869952043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003510975042159328</v>
+        <v>0.003778796698373116</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01336763973100199</v>
+        <v>0.01396012257804685</v>
       </c>
     </row>
     <row r="15">
@@ -11296,19 +11296,19 @@
         <v>265602</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>244794</v>
+        <v>243794</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>289823</v>
+        <v>288389</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.566309010578718</v>
+        <v>0.5663090105787177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5219415383108518</v>
+        <v>0.5198105320325016</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6179513267507034</v>
+        <v>0.6148938766378679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>167</v>
@@ -11317,19 +11317,19 @@
         <v>111275</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>100244</v>
+        <v>100210</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>122938</v>
+        <v>122065</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.5973105134965301</v>
+        <v>0.5973105134965299</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.538098541150686</v>
+        <v>0.5379180772855243</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6599172854840015</v>
+        <v>0.6552296866599849</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>427</v>
@@ -11338,19 +11338,19 @@
         <v>376877</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>352641</v>
+        <v>352659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>400450</v>
+        <v>400679</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.5751223231728075</v>
+        <v>0.5751223231728076</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5381379914883725</v>
+        <v>0.5381652837712785</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6110955493706941</v>
+        <v>0.6114439654137226</v>
       </c>
     </row>
     <row r="17">
@@ -11367,19 +11367,19 @@
         <v>147285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>127603</v>
+        <v>127319</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171099</v>
+        <v>168637</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3140370335192955</v>
+        <v>0.3140370335192954</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2720713041507113</v>
+        <v>0.2714666364698619</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3648116749881963</v>
+        <v>0.3595618740440094</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>89</v>
@@ -11388,19 +11388,19 @@
         <v>56287</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45152</v>
+        <v>46824</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66012</v>
+        <v>66758</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3021413960894485</v>
+        <v>0.3021413960894484</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2423707919766601</v>
+        <v>0.2513467119996343</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3543469143940404</v>
+        <v>0.3583500136967728</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>249</v>
@@ -11409,19 +11409,19 @@
         <v>203572</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>180394</v>
+        <v>181743</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>227121</v>
+        <v>225089</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3106552629176205</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2752846246539545</v>
+        <v>0.2773439750911829</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3465907742349633</v>
+        <v>0.3434902766527611</v>
       </c>
     </row>
     <row r="18">
@@ -11438,19 +11438,19 @@
         <v>37581</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>26888</v>
+        <v>27298</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49785</v>
+        <v>50395</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08012871812254442</v>
+        <v>0.08012871812254441</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.0573294862995177</v>
+        <v>0.05820384376200296</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1061500633069027</v>
+        <v>0.1074502995885632</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -11459,19 +11459,19 @@
         <v>8745</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>5173</v>
+        <v>4869</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14004</v>
+        <v>14359</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04694073086355257</v>
+        <v>0.04694073086355256</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02776888366076818</v>
+        <v>0.02613687943766628</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.07517446574532334</v>
+        <v>0.07707910910180904</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>58</v>
@@ -11480,19 +11480,19 @@
         <v>46326</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>35130</v>
+        <v>35614</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>61466</v>
+        <v>60772</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.07069381727733057</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.05360971698573175</v>
+        <v>0.05434813531699144</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.09379768330150538</v>
+        <v>0.09273901065979856</v>
       </c>
     </row>
     <row r="19">
@@ -11509,19 +11509,19 @@
         <v>9931</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5025</v>
+        <v>5333</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>16679</v>
+        <v>18047</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.02117387147606993</v>
+        <v>0.02117387147606992</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01071379803792441</v>
+        <v>0.01137005462355138</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03556293952030054</v>
+        <v>0.03847874000313604</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>15</v>
@@ -11530,19 +11530,19 @@
         <v>9140</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5187</v>
+        <v>4860</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>15565</v>
+        <v>15159</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.04906077999104474</v>
+        <v>0.04906077999104473</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0278450908388724</v>
+        <v>0.02608700981547381</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.083550514564853</v>
+        <v>0.08137080808428299</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>27</v>
@@ -11551,19 +11551,19 @@
         <v>19070</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12783</v>
+        <v>12327</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>27809</v>
+        <v>27901</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02910174654318628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01950779742997038</v>
+        <v>0.01881172548307576</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04243700444468496</v>
+        <v>0.0425780203831396</v>
       </c>
     </row>
     <row r="20">
@@ -11580,19 +11580,19 @@
         <v>8607</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4255</v>
+        <v>4492</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15641</v>
+        <v>15623</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01835136630337237</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.009072590303289383</v>
+        <v>0.009577075648371734</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03334853338556325</v>
+        <v>0.03330991192981583</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -11604,16 +11604,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>4949</v>
+        <v>4128</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.004546579559424308</v>
+        <v>0.004546579559424307</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02656493321003042</v>
+        <v>0.02216060438745697</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>11</v>
@@ -11622,19 +11622,19 @@
         <v>9454</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5110</v>
+        <v>4956</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>16913</v>
+        <v>16136</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01442685008905498</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.007797987698806993</v>
+        <v>0.007562420869044606</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02580917135861765</v>
+        <v>0.02462345344289697</v>
       </c>
     </row>
     <row r="21">
@@ -11726,19 +11726,19 @@
         <v>634860</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>599341</v>
+        <v>598346</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>669185</v>
+        <v>670657</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.564026909625266</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5324715230582145</v>
+        <v>0.5315871360418372</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5945228935262422</v>
+        <v>0.5958299820627079</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>683</v>
@@ -11747,19 +11747,19 @@
         <v>499881</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>475317</v>
+        <v>475607</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>525246</v>
+        <v>526035</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5833155454879266</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5546512522273312</v>
+        <v>0.5549902892335407</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6129136144570682</v>
+        <v>0.613835252442696</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1280</v>
@@ -11768,19 +11768,19 @@
         <v>1134740</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1091980</v>
+        <v>1092026</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1181697</v>
+        <v>1182692</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5723645028903749</v>
+        <v>0.5723645028903748</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5507963418951505</v>
+        <v>0.5508194302542094</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5960498462725323</v>
+        <v>0.5965514068812147</v>
       </c>
     </row>
     <row r="23">
@@ -11797,19 +11797,19 @@
         <v>355955</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>326511</v>
+        <v>323145</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>391731</v>
+        <v>393606</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.316240393470121</v>
+        <v>0.3162403934701211</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.290081132718816</v>
+        <v>0.2870909635961862</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3480242830747707</v>
+        <v>0.3496908637526152</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>382</v>
@@ -11818,19 +11818,19 @@
         <v>249420</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>228673</v>
+        <v>227577</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>270057</v>
+        <v>275110</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2910498669760616</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2668400852775168</v>
+        <v>0.2655619204425577</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.315132045599114</v>
+        <v>0.3210278175294847</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>742</v>
@@ -11839,19 +11839,19 @@
         <v>605374</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>564841</v>
+        <v>563650</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>646886</v>
+        <v>647625</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3053516833748677</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.284906656236833</v>
+        <v>0.2843060827572802</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3262903126045352</v>
+        <v>0.3266630835904768</v>
       </c>
     </row>
     <row r="24">
@@ -11868,19 +11868,19 @@
         <v>86372</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>70578</v>
+        <v>68974</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>107081</v>
+        <v>104681</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.07673551393034672</v>
+        <v>0.07673551393034674</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06270368991892673</v>
+        <v>0.06127875691409666</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09513352942004706</v>
+        <v>0.09300173071266195</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>95</v>
@@ -11889,19 +11889,19 @@
         <v>66705</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>53292</v>
+        <v>55157</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>80810</v>
+        <v>82860</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07783865289364972</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.06218653665712833</v>
+        <v>0.06436304279393462</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.09429783315033784</v>
+        <v>0.09668997128062984</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>188</v>
@@ -11910,19 +11910,19 @@
         <v>153077</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>130521</v>
+        <v>131662</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174701</v>
+        <v>175081</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.07721235034617223</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0658349206134167</v>
+        <v>0.06641058927128417</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08811928421554514</v>
+        <v>0.08831101234822181</v>
       </c>
     </row>
     <row r="25">
@@ -11939,19 +11939,19 @@
         <v>35383</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>25966</v>
+        <v>26259</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>49464</v>
+        <v>48758</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.03143535971803653</v>
+        <v>0.03143535971803654</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02306904279827241</v>
+        <v>0.02332934870275651</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04394500159914512</v>
+        <v>0.04331814504410861</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>45</v>
@@ -11960,19 +11960,19 @@
         <v>29580</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>21919</v>
+        <v>21970</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39896</v>
+        <v>39453</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.03451679107703618</v>
+        <v>0.03451679107703619</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02557800797020059</v>
+        <v>0.02563704334938613</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.04655550051569236</v>
+        <v>0.04603780077180936</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>89</v>
@@ -11981,19 +11981,19 @@
         <v>64963</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>51825</v>
+        <v>52367</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>80740</v>
+        <v>81058</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03276732126931583</v>
+        <v>0.03276732126931584</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02614057189010955</v>
+        <v>0.02641410219293274</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04072517812094011</v>
+        <v>0.04088578769180357</v>
       </c>
     </row>
     <row r="26">
@@ -12010,19 +12010,19 @@
         <v>13014</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>8137</v>
+        <v>7201</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>20598</v>
+        <v>20108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01156182325622978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007229567831935502</v>
+        <v>0.006397696821151834</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0183002284358224</v>
+        <v>0.0178645748249888</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -12031,19 +12031,19 @@
         <v>11380</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>6878</v>
+        <v>7016</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>18264</v>
+        <v>17627</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01327914356532587</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008025445332053507</v>
+        <v>0.008187476537505258</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0213120333831682</v>
+        <v>0.02056856371750105</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>35</v>
@@ -12052,19 +12052,19 @@
         <v>24394</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17575</v>
+        <v>17520</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34138</v>
+        <v>34018</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01230414211926934</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008864716234255943</v>
+        <v>0.0088372291092551</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01721925770333821</v>
+        <v>0.01715871923117137</v>
       </c>
     </row>
     <row r="27">
@@ -12156,19 +12156,19 @@
         <v>283183</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>257600</v>
+        <v>257542</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>308224</v>
+        <v>309685</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.4995430763943974</v>
+        <v>0.4995430763943975</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4544139920867906</v>
+        <v>0.4543105571163448</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5437143763050095</v>
+        <v>0.5462921925354015</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>589</v>
@@ -12177,19 +12177,19 @@
         <v>389827</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>367567</v>
+        <v>367643</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>415542</v>
+        <v>414767</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.471742124297284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4448045848402659</v>
+        <v>0.4448966340750753</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5028610371295248</v>
+        <v>0.5019227200421172</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>850</v>
@@ -12198,19 +12198,19 @@
         <v>673010</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>635397</v>
+        <v>636470</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>705386</v>
+        <v>708688</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4830538414921037</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4560570356273114</v>
+        <v>0.4568269826388037</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5062917079098782</v>
+        <v>0.5086611700570135</v>
       </c>
     </row>
     <row r="29">
@@ -12227,19 +12227,19 @@
         <v>150251</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>129454</v>
+        <v>126883</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>173647</v>
+        <v>172730</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2650474148080297</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2283603301767005</v>
+        <v>0.2238244942154625</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.306318289919941</v>
+        <v>0.3047005488885084</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>415</v>
@@ -12248,19 +12248,19 @@
         <v>268373</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>242053</v>
+        <v>247029</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>290157</v>
+        <v>292355</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3247669340141126</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2929164651032826</v>
+        <v>0.2989376511592378</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3511286807213057</v>
+        <v>0.3537886972584692</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>567</v>
@@ -12269,19 +12269,19 @@
         <v>418624</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>388958</v>
+        <v>384139</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>450813</v>
+        <v>452297</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.300468114681952</v>
+        <v>0.3004681146819519</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2791753046425263</v>
+        <v>0.2757163651418817</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3235717473569156</v>
+        <v>0.3246368172918891</v>
       </c>
     </row>
     <row r="30">
@@ -12298,19 +12298,19 @@
         <v>74707</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>58726</v>
+        <v>57359</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>99016</v>
+        <v>95024</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1317842302691063</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.103594828867583</v>
+        <v>0.1011819419483169</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1746670681282207</v>
+        <v>0.1676240092850153</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>145</v>
@@ -12319,19 +12319,19 @@
         <v>86028</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>72676</v>
+        <v>73044</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>101244</v>
+        <v>100774</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.1041051595321703</v>
+        <v>0.1041051595321704</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08794701152117716</v>
+        <v>0.08839279334872026</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1225183450794791</v>
+        <v>0.121950144563478</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>211</v>
@@ -12340,19 +12340,19 @@
         <v>160734</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>139493</v>
+        <v>138926</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>187387</v>
+        <v>185959</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1153672853506647</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1001208843255606</v>
+        <v>0.0997142659903173</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1344970354746928</v>
+        <v>0.1334724025061139</v>
       </c>
     </row>
     <row r="31">
@@ -12369,19 +12369,19 @@
         <v>38268</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>27098</v>
+        <v>27501</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51373</v>
+        <v>52149</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.06750614050579065</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.0478017329853662</v>
+        <v>0.0485120161697903</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0906236186510526</v>
+        <v>0.09199193086603259</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>99</v>
@@ -12390,19 +12390,19 @@
         <v>61479</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>50770</v>
+        <v>50209</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>75136</v>
+        <v>74765</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07439739579654282</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06143782125919883</v>
+        <v>0.06075996947361292</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09092389791395336</v>
+        <v>0.09047571278708817</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>142</v>
@@ -12411,19 +12411,19 @@
         <v>99747</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>82493</v>
+        <v>83172</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>118640</v>
+        <v>119874</v>
       </c>
       <c r="U31" s="6" t="n">
-        <v>0.07159346553206863</v>
+        <v>0.07159346553206865</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05920950085950283</v>
+        <v>0.05969675928208279</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.08515388928575217</v>
+        <v>0.08603952582353244</v>
       </c>
     </row>
     <row r="32">
@@ -12440,19 +12440,19 @@
         <v>20475</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>13490</v>
+        <v>12911</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>31254</v>
+        <v>31398</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.03611913802267581</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0237964245920068</v>
+        <v>0.02277580669278956</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05513317707747203</v>
+        <v>0.05538772688353485</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>34</v>
@@ -12461,19 +12461,19 @@
         <v>20649</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>14156</v>
+        <v>14289</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>28365</v>
+        <v>29273</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02498838635989018</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.0171309032459607</v>
+        <v>0.01729103179298849</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.03432487517588286</v>
+        <v>0.03542393527824644</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>58</v>
@@ -12482,19 +12482,19 @@
         <v>41125</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>30793</v>
+        <v>31216</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>53379</v>
+        <v>53647</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.02951729294321084</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02210193452602034</v>
+        <v>0.02240497796532306</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.03831287297236905</v>
+        <v>0.03850507662434053</v>
       </c>
     </row>
     <row r="33">
@@ -12586,19 +12586,19 @@
         <v>182412</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>162354</v>
+        <v>161167</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>200676</v>
+        <v>199038</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.7689324014093271</v>
+        <v>0.7689324014093269</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.6843796262532407</v>
+        <v>0.6793766366321902</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.8459192698737543</v>
+        <v>0.8390154032648384</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>557</v>
@@ -12607,19 +12607,19 @@
         <v>440903</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>416010</v>
+        <v>411713</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>472011</v>
+        <v>466473</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.5247381343169937</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.4951125586281933</v>
+        <v>0.489998257703295</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.5617612695896038</v>
+        <v>0.5551704639001483</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>633</v>
@@ -12628,19 +12628,19 @@
         <v>623314</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>584713</v>
+        <v>585805</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>656983</v>
+        <v>657934</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.5785030708626711</v>
+        <v>0.5785030708626709</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.542677089501603</v>
+        <v>0.543689899932926</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6097506847488132</v>
+        <v>0.6106335717237803</v>
       </c>
     </row>
     <row r="35">
@@ -12657,19 +12657,19 @@
         <v>43187</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>27339</v>
+        <v>29239</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>61501</v>
+        <v>64096</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1820464953970717</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1152436825367091</v>
+        <v>0.1232513650875358</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2592493056759818</v>
+        <v>0.2701866911378114</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>422</v>
@@ -12678,19 +12678,19 @@
         <v>293640</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>266527</v>
+        <v>267406</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>319199</v>
+        <v>318804</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3494736808143636</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.3172057050568819</v>
+        <v>0.3182516090371971</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3798934060599145</v>
+        <v>0.3794224501072855</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>448</v>
@@ -12699,19 +12699,19 @@
         <v>336826</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>305172</v>
+        <v>304685</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>371255</v>
+        <v>369635</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.3126107679083109</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2832327597718065</v>
+        <v>0.2827807514827</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3445650347708406</v>
+        <v>0.3430615834657318</v>
       </c>
     </row>
     <row r="36">
@@ -12728,19 +12728,19 @@
         <v>7815</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2982</v>
+        <v>3099</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16280</v>
+        <v>16028</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03294442198111396</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0125696105363856</v>
+        <v>0.01306289336385604</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0686262363277277</v>
+        <v>0.06756354551757973</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>108</v>
@@ -12749,19 +12749,19 @@
         <v>66083</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>54728</v>
+        <v>55393</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>79857</v>
+        <v>80845</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.07864781811301194</v>
+        <v>0.07864781811301191</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06513426864924746</v>
+        <v>0.06592544272860158</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.09504195577366775</v>
+        <v>0.09621738821792686</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>115</v>
@@ -12770,19 +12770,19 @@
         <v>73898</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>60204</v>
+        <v>61951</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>89844</v>
+        <v>91300</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.0685851732269863</v>
+        <v>0.06858517322698629</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.05587622139671473</v>
+        <v>0.05749756963096336</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.08338500584296939</v>
+        <v>0.08473653606927235</v>
       </c>
     </row>
     <row r="37">
@@ -12799,19 +12799,19 @@
         <v>3814</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>12636</v>
+        <v>11763</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.01607668121248735</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.002128228649817677</v>
+        <v>0.002231563498238931</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05326697287416537</v>
+        <v>0.04958594123010607</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>51</v>
@@ -12820,19 +12820,19 @@
         <v>30463</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>22288</v>
+        <v>22670</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>39460</v>
+        <v>39724</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.03625508456249228</v>
+        <v>0.03625508456249229</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02652573806790424</v>
+        <v>0.02698037374234143</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.04696254933632185</v>
+        <v>0.04727737550201452</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>54</v>
@@ -12841,19 +12841,19 @@
         <v>34277</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>25627</v>
+        <v>25946</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>45816</v>
+        <v>45791</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03181234891343675</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.02378457126331371</v>
+        <v>0.02408107688238446</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.0425219090094454</v>
+        <v>0.04249904300397089</v>
       </c>
     </row>
     <row r="38">
@@ -12883,19 +12883,19 @@
         <v>9146</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>5390</v>
+        <v>5415</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>15098</v>
+        <v>15337</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.01088528219313861</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.006414293914815987</v>
+        <v>0.006444152074911401</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.01796897828654824</v>
+        <v>0.01825303358077227</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>15</v>
@@ -12904,19 +12904,19 @@
         <v>9146</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>5667</v>
+        <v>5055</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15686</v>
+        <v>14440</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.008488639088595132</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.005259682061630524</v>
+        <v>0.004691166285672701</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.01455828291727279</v>
+        <v>0.01340154936120345</v>
       </c>
     </row>
     <row r="39">
@@ -13008,19 +13008,19 @@
         <v>2011051</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>1953092</v>
+        <v>1942376</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2069603</v>
+        <v>2072480</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.58661500106219</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.5697087491579469</v>
+        <v>0.5665827989491046</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.6036945312780108</v>
+        <v>0.6045337769034052</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2832</v>
@@ -13029,19 +13029,19 @@
         <v>2045676</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1994519</v>
+        <v>1993706</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>2096998</v>
+        <v>2103218</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.5653577175987712</v>
+        <v>0.5653577175987713</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.5512196444903541</v>
+        <v>0.550994874104172</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.5795414583969358</v>
+        <v>0.5812606479863668</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4648</v>
@@ -13050,19 +13050,19 @@
         <v>4056727</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>3977653</v>
+        <v>3971174</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4138800</v>
+        <v>4139236</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.5756995570517981</v>
+        <v>0.5756995570517979</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.5644779592019935</v>
+        <v>0.5635585682865452</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.5873467512620186</v>
+        <v>0.5874086491185174</v>
       </c>
     </row>
     <row r="41">
@@ -13079,19 +13079,19 @@
         <v>986547</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>927623</v>
+        <v>931660</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1044583</v>
+        <v>1047991</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2877715774998718</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2705838633421761</v>
+        <v>0.2717613679813783</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3047005556227569</v>
+        <v>0.3056945603529492</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1648</v>
@@ -13100,19 +13100,19 @@
         <v>1106146</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>1061965</v>
+        <v>1055654</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>1155951</v>
+        <v>1153282</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.3057025972211236</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2934924512705899</v>
+        <v>0.2917482138262811</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.3194669426367951</v>
+        <v>0.3187294131508167</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>2656</v>
@@ -13121,19 +13121,19 @@
         <v>2092693</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>2012844</v>
+        <v>2017268</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>2159198</v>
+        <v>2168358</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2969790118436523</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2856473395048584</v>
+        <v>0.2862751770805586</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3064168254503929</v>
+        <v>0.3077167833161202</v>
       </c>
     </row>
     <row r="42">
@@ -13150,19 +13150,19 @@
         <v>277947</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>246086</v>
+        <v>245570</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>311507</v>
+        <v>315006</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.08107595809969863</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07178226680314644</v>
+        <v>0.07163179934720128</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.09086539304022151</v>
+        <v>0.09188584907450857</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>421</v>
@@ -13171,19 +13171,19 @@
         <v>268925</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>245434</v>
+        <v>241160</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>295905</v>
+        <v>293262</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.07432205965952832</v>
+        <v>0.0743220596595283</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.06782979930442933</v>
+        <v>0.06664864693930578</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.08177845869328836</v>
+        <v>0.08104793183547275</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>701</v>
@@ -13192,19 +13192,19 @@
         <v>546872</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>504195</v>
+        <v>504986</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>589286</v>
+        <v>586703</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.07760788559634141</v>
+        <v>0.07760788559634138</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.0715514321156091</v>
+        <v>0.07166374245349351</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.08362695168993937</v>
+        <v>0.08326042123985908</v>
       </c>
     </row>
     <row r="43">
@@ -13221,19 +13221,19 @@
         <v>105243</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>86541</v>
+        <v>86846</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>125268</v>
+        <v>125206</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.03069906516687141</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.0252436804701185</v>
+        <v>0.02533266941311123</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.03654003665094014</v>
+        <v>0.03652198676739935</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>234</v>
@@ -13242,19 +13242,19 @@
         <v>146516</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>126969</v>
+        <v>127706</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>166577</v>
+        <v>165471</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.04049227786812496</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.03509005964594714</v>
+        <v>0.03529364456990439</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.04603643096256267</v>
+        <v>0.0457308540581267</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>356</v>
@@ -13263,19 +13263,19 @@
         <v>251760</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>225586</v>
+        <v>225685</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>280337</v>
+        <v>281388</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.03572780108726081</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.03201349663106267</v>
+        <v>0.03202747858990933</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.03978321595514872</v>
+        <v>0.03993245123249931</v>
       </c>
     </row>
     <row r="44">
@@ -13292,19 +13292,19 @@
         <v>47441</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>35110</v>
+        <v>35798</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>62092</v>
+        <v>61147</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.01383839817136819</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01024134784344123</v>
+        <v>0.01044215885783908</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.01811189938346578</v>
+        <v>0.01783631352539247</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>82</v>
@@ -13313,19 +13313,19 @@
         <v>51111</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>40796</v>
+        <v>40857</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>63468</v>
+        <v>62990</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.0141253476524518</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.01127469807291186</v>
+        <v>0.01129160564873651</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.01754051783112652</v>
+        <v>0.01740848492938794</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>139</v>
@@ -13334,19 +13334,19 @@
         <v>98552</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>83142</v>
+        <v>83136</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>117201</v>
+        <v>118738</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.01398574442094751</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.01179891475956659</v>
+        <v>0.01179804744825574</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.01663228579075089</v>
+        <v>0.01685035128476625</v>
       </c>
     </row>
     <row r="45">
